--- a/文档/江苏明美MES项目设备接口交互数据内容明细表-20180129.xlsx
+++ b/文档/江苏明美MES项目设备接口交互数据内容明细表-20180129.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\项目\明美项目\Git_mingmei\MingMeiMES\文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2D108F02-50A3-4FE3-B99F-FCA1C73BAAC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950" tabRatio="745" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" tabRatio="745" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="13" r:id="rId1"/>
@@ -29,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="0">
+    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +80,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -150,12 +156,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -182,12 +188,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -228,12 +234,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="349">
   <si>
     <t>文档更新说明</t>
   </si>
@@ -333,7 +339,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -349,7 +355,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>MES</t>
     </r>
@@ -366,7 +372,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -382,7 +388,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>MES</t>
     </r>
@@ -398,7 +404,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>MES</t>
     </r>
@@ -426,7 +432,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>MES</t>
     </r>
@@ -553,7 +559,7 @@
         <sz val="10"/>
         <color theme="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>SN</t>
     </r>
@@ -718,7 +724,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>01</t>
     </r>
@@ -1392,7 +1398,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2ME0000001A1$TWSME04003120C[DCIR</t>
     </r>
@@ -1408,7 +1414,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1:500:A|DCIR</t>
     </r>
@@ -1424,7 +1430,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2:60:A|DCIR</t>
     </r>
@@ -1440,7 +1446,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:10:S|DCIR</t>
     </r>
@@ -1456,7 +1462,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:1:S|DCIR</t>
     </r>
@@ -1472,7 +1478,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:0-4:mΩ|K</t>
     </r>
@@ -1488,7 +1494,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:0-.05:mV/h|cell</t>
     </r>
@@ -1504,7 +1510,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:3.615-3.63:V|cell</t>
     </r>
@@ -1520,7 +1526,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:.3-.5:mΩ|</t>
     </r>
@@ -1536,7 +1542,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:4500-4800:W|</t>
     </r>
@@ -1552,7 +1558,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:.5:mm|</t>
     </r>
@@ -1568,7 +1574,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:.04:|</t>
     </r>
@@ -1584,7 +1590,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:10-24:mm|</t>
     </r>
@@ -1600,7 +1606,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:114:w|</t>
     </r>
@@ -1616,7 +1622,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:47.3-50:mm|</t>
     </r>
@@ -1632,7 +1638,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:50.1-99.9:Ah|</t>
     </r>
@@ -1648,7 +1654,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:4:</t>
     </r>
@@ -1664,7 +1670,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>|</t>
     </r>
@@ -1680,7 +1686,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:.5-1.5:mV|</t>
     </r>
@@ -1696,7 +1702,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:10-100:|</t>
     </r>
@@ -1712,7 +1718,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:300-99999:MΩ|</t>
     </r>
@@ -1728,7 +1734,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:19-21:min|</t>
     </r>
@@ -1744,7 +1750,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:57-63:</t>
     </r>
@@ -1760,7 +1766,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>|</t>
     </r>
@@ -1776,7 +1782,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:190-210:ml|</t>
     </r>
@@ -1792,7 +1798,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:114:w|</t>
     </r>
@@ -1808,7 +1814,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:100-500:Kgf|</t>
     </r>
@@ -1824,7 +1830,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:625.68-626.68:mm|</t>
     </r>
@@ -1840,7 +1846,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:500:V|</t>
     </r>
@@ -1856,7 +1862,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:15:S|</t>
     </r>
@@ -1872,7 +1878,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:.012-.2:mΩ|</t>
     </r>
@@ -1888,7 +1894,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:2700-2820:W|</t>
     </r>
@@ -1904,7 +1910,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:300-99999:MΩ]#DXLH20170001[</t>
     </r>
@@ -1920,7 +1926,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:47.3-50:mm|</t>
     </r>
@@ -1936,7 +1942,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:1-5:|</t>
     </r>
@@ -1952,7 +1958,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:5-6:|</t>
     </r>
@@ -1968,7 +1974,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:10-20:]#FXMK20170001$ABS[</t>
     </r>
@@ -1984,7 +1990,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:50.1-99.9:Ah|</t>
     </r>
@@ -2000,7 +2006,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:0-99999:|</t>
     </r>
@@ -2016,7 +2022,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:190-210:ml|</t>
     </r>
@@ -2032,7 +2038,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2:0-500:|</t>
     </r>
@@ -2048,7 +2054,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:100-500:Kgf|</t>
     </r>
@@ -2064,7 +2070,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:0-5999:|</t>
     </r>
@@ -2080,7 +2086,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:500:V|</t>
     </r>
@@ -2096,7 +2102,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:15:S|</t>
     </r>
@@ -2112,7 +2118,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:1000-99999:Kgf|</t>
     </r>
@@ -2128,7 +2134,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>:0-99999:]</t>
     </r>
@@ -2141,7 +2147,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>MI</t>
     </r>
@@ -2157,7 +2163,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 ME</t>
@@ -2309,7 +2315,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>01</t>
     </r>
@@ -2341,7 +2347,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -2357,7 +2363,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>01</t>
     </r>
@@ -2386,7 +2392,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>01</t>
     </r>
@@ -2415,53 +2421,74 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <t>设备上传数据或请求数据</t>
+  </si>
+  <si>
+    <t>MES返回内容</t>
+  </si>
+  <si>
+    <t>各数据类型对应要求必填字段</t>
+  </si>
+  <si>
+    <t>依据数据类型返回对应内容</t>
+  </si>
+  <si>
+    <t>对应工作中心SN</t>
+  </si>
+  <si>
+    <t>与请求对应的数据类型</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>工作中心</t>
+  </si>
+  <si>
+    <t>端板雕刻未做完重置条码发布状态</t>
+  </si>
+  <si>
+    <t>产品条码1|产品条码2|产品条码3</t>
+  </si>
+  <si>
+    <t>Y00200101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>01</t>
-    </r>
-  </si>
-  <si>
-    <t>设备上传数据或请求数据</t>
-  </si>
-  <si>
-    <t>MES返回内容</t>
-  </si>
-  <si>
-    <t>各数据类型对应要求必填字段</t>
-  </si>
-  <si>
-    <t>依据数据类型返回对应内容</t>
-  </si>
-  <si>
-    <t>对应工作中心SN</t>
-  </si>
-  <si>
-    <t>与请求对应的数据类型</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>工作中心</t>
-  </si>
-  <si>
-    <t>端板雕刻未做完重置条码发布状态</t>
-  </si>
-  <si>
-    <t>产品条码1|产品条码2|产品条码3</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00101</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2499,168 +2526,25 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2678,7 +2562,7 @@
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2693,8 +2577,29 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2707,194 +2612,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -3336,274 +3055,296 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3615,323 +3356,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4189,129 +3665,128 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="19.2857142857143" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18" style="5" customWidth="1"/>
-    <col min="3" max="3" width="97.7142857142857" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="5"/>
+    <col min="1" max="1" width="19.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="97.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:3">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:3" ht="20">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.5">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
-      <c r="A3" s="92">
+    <row r="3" spans="1:3" ht="14.5">
+      <c r="A3" s="61">
         <v>43082</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="91"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:3">
-      <c r="A4" s="93">
+      <c r="C3" s="60"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.5">
+      <c r="A4" s="67">
         <v>43105</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="93"/>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:3" ht="14.5">
+      <c r="A5" s="67"/>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="115.5" spans="1:3">
-      <c r="A6" s="93"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:3" ht="101.5">
+      <c r="A6" s="67"/>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="49.5" spans="1:3">
-      <c r="A7" s="93"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:3" ht="43.5">
+      <c r="A7" s="67"/>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:3" ht="14.5">
+      <c r="A8" s="67"/>
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:3" ht="14.5">
+      <c r="A9" s="67"/>
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="63" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="99" spans="1:3">
-      <c r="A10" s="92">
+    <row r="10" spans="1:3" ht="87">
+      <c r="A10" s="68">
         <v>43125</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="37.5" customHeight="1" spans="1:3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="96" t="s">
+    <row r="11" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A11" s="68"/>
+      <c r="B11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="63" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4321,229 +3796,227 @@
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="20.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="5"/>
-    <col min="5" max="5" width="10.2857142857143" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.4285714285714" style="5" customWidth="1"/>
-    <col min="8" max="8" width="34.1428571428571" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="4"/>
+    <col min="5" max="5" width="10.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.1796875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="25">
+      <c r="A1" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:9">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.5">
+      <c r="A2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="24" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:9" ht="14.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:9">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:9" ht="30" customHeight="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" ht="33.75" spans="1:9">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:9" ht="29">
+      <c r="A5" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="14">
         <v>12</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" ht="33.75" spans="1:9">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:9" ht="29">
+      <c r="A6" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="14">
         <v>12</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" ht="33.75" spans="1:9">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:9" ht="29">
+      <c r="A7" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="14">
         <v>12</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" ht="33.75" spans="1:9">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:9" ht="29">
+      <c r="A8" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="14">
         <v>12</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4555,107 +4028,106 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="5"/>
-    <col min="2" max="2" width="16.7142857142857" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.4285714285714" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="5"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="16.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5">
+      <c r="A2" s="94" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="78" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.5">
+      <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" ht="48.75" customHeight="1" spans="1:6">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="8" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4667,83 +4139,82 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.5714285714286" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.4285714285714" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="31.5" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.5">
+      <c r="A2" s="94" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="107" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" ht="30" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="108"/>
+      <c r="D4" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" ht="48.75" customHeight="1" spans="1:4">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:4" ht="48.75" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4753,62 +4224,61 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="31.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="27.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="2:2">
+    <row r="1" spans="2:3" ht="25.5">
       <c r="B1" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" ht="13.5"/>
-    <row r="5" ht="16.5" spans="2:3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:3" ht="14.5">
+      <c r="B5" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" ht="16.5" spans="2:3">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="78"/>
+    </row>
+    <row r="6" spans="2:3" ht="14.5">
+      <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="2:3">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:3" ht="14.5">
+      <c r="B7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="2:3">
-      <c r="B8" s="4">
+    <row r="8" spans="2:3" ht="14.5">
+      <c r="B8" s="3">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4816,286 +4286,284 @@
   <mergeCells count="1">
     <mergeCell ref="B5:C5"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="5.42857142857143" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.1428571428571" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.28571428571429" style="5" customWidth="1"/>
-    <col min="4" max="4" width="44.5714285714286" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="5"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.54296875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" spans="1:4">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:4" ht="20">
+      <c r="A1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-    </row>
-    <row r="2" ht="17.25" spans="1:4">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.5">
+      <c r="A2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="80">
+    <row r="3" spans="1:4" ht="14.5">
+      <c r="A3" s="54">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="56">
         <v>11</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:4">
-      <c r="A4" s="29">
+    <row r="4" spans="1:4" ht="14.5">
+      <c r="A4" s="71">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="4">
+    <row r="5" spans="1:4" ht="14.5">
+      <c r="A5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="4">
+    <row r="6" spans="1:4" ht="14.5">
+      <c r="A6" s="71"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:4">
-      <c r="A7" s="29">
+    <row r="7" spans="1:4" ht="14.5">
+      <c r="A7" s="71">
         <v>3</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="4">
+    <row r="8" spans="1:4" ht="14.5">
+      <c r="A8" s="71"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:4">
-      <c r="A9" s="29">
+    <row r="9" spans="1:4" ht="14.5">
+      <c r="A9" s="19">
         <v>4</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:4">
-      <c r="A10" s="29">
+    <row r="10" spans="1:4" ht="14.5">
+      <c r="A10" s="19">
         <v>5</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:4">
-      <c r="A11" s="29">
+    <row r="11" spans="1:4" ht="14.5">
+      <c r="A11" s="19">
         <v>6</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:4">
-      <c r="A12" s="42">
+    <row r="12" spans="1:4" ht="14.5">
+      <c r="A12" s="72">
         <v>7</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>13</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:4">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="4">
+    <row r="13" spans="1:4" ht="14.5">
+      <c r="A13" s="73"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="3">
         <v>14</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="29">
+    <row r="14" spans="1:4" ht="14.5">
+      <c r="A14" s="19">
         <v>8</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>12</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:4">
-      <c r="A15" s="29">
+    <row r="15" spans="1:4" ht="29">
+      <c r="A15" s="19">
         <v>9</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:4">
-      <c r="A16" s="29">
+    <row r="16" spans="1:4" ht="29">
+      <c r="A16" s="19">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:4">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:4">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:4">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:4">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:4">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:4">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:4">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:4">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:4">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
+    <row r="17" spans="1:4" ht="14.5">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.5">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.5">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.5">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.5">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.5">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.5">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.5">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.5">
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5107,327 +4575,325 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B12:B13"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1-生产任务'!A1" display="生产任务"/>
-    <hyperlink ref="B4:B6" location="'2-数据上传'!A1" display="数据上传"/>
-    <hyperlink ref="B7:B8" location="'3-获取、上传设备参数、测试标准'!A1" display="获取、上传设备参数、测试标准"/>
-    <hyperlink ref="B9" location="'4-过程参数上传'!A1" display="过程参数上传"/>
-    <hyperlink ref="B10" location="'5-报警信息上传 '!A1" display="报警信息上传"/>
-    <hyperlink ref="B11" location="'6-获取产品SN'!A1" display="获取产品SN"/>
-    <hyperlink ref="B12:B13" location="'7-获取马头枪测试标准'!A1" display="获取马头枪测试标准"/>
-    <hyperlink ref="B14" location="'8-上传马头枪数据'!A1" display="上传马头枪数据"/>
-    <hyperlink ref="B15" location="'9-停机信息发布'!A1" display="停机信息发布"/>
-    <hyperlink ref="B16" location="'10-停机信息上传'!A1" display="停机信息上传"/>
+    <hyperlink ref="B3" location="'1-生产任务'!A1" display="生产任务" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4:B6" location="'2-数据上传'!A1" display="数据上传" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B7:B8" location="'3-获取、上传设备参数、测试标准'!A1" display="获取、上传设备参数、测试标准" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B9" location="'4-过程参数上传'!A1" display="过程参数上传" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B10" location="'5-报警信息上传 '!A1" display="报警信息上传" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B11" location="'6-获取产品SN'!A1" display="获取产品SN" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B12:B13" location="'7-获取马头枪测试标准'!A1" display="获取马头枪测试标准" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B14" location="'8-上传马头枪数据'!A1" display="上传马头枪数据" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B15" location="'9-停机信息发布'!A1" display="停机信息发布" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B16" location="'10-停机信息上传'!A1" display="停机信息上传" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="5"/>
-    <col min="5" max="5" width="16.7142857142857" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="5"/>
-    <col min="7" max="7" width="13.7142857142857" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.4285714285714" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.14285714285714" style="5"/>
-    <col min="10" max="10" width="11.1428571428571" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.14285714285714" style="5"/>
-    <col min="12" max="12" width="13.7142857142857" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.4285714285714" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.14285714285714" style="5"/>
-    <col min="15" max="15" width="11.1428571428571" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="4"/>
+    <col min="5" max="5" width="16.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="4"/>
+    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="4"/>
+    <col min="10" max="10" width="11.1796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="4"/>
+    <col min="12" max="12" width="13.7265625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="4"/>
+    <col min="15" max="15" width="11.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1" spans="1:15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:15">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.5">
+      <c r="A2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:15" ht="30" customHeight="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:15">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:15" ht="14.5">
+      <c r="A5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>11</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:15">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:15" ht="14.5">
+      <c r="A6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>11</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:15">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:15" ht="14.5">
+      <c r="A7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="43">
         <v>11</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="43">
         <v>11</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="43">
         <v>11</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="15:15">
-      <c r="O9" s="73" t="s">
+    <row r="9" spans="1:15" ht="13">
+      <c r="O9" s="49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5441,8 +4907,9 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O9" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="O9" location="目录!A1" display="返回目录" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5451,2161 +4918,2168 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="N53" sqref="N53"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="5.42857142857143" customWidth="1"/>
-    <col min="2" max="2" width="12.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="12.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" style="56" customWidth="1"/>
-    <col min="5" max="5" width="26.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="5"/>
-    <col min="7" max="7" width="10.2857142857143" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.7142857142857" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.7142857142857" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.4285714285714" style="5" customWidth="1"/>
-    <col min="11" max="11" width="14" style="5" customWidth="1"/>
-    <col min="12" max="13" width="8.57142857142857" style="5" customWidth="1"/>
-    <col min="14" max="14" width="34.1428571428571" style="17" customWidth="1"/>
-    <col min="15" max="16" width="12.4285714285714" customWidth="1"/>
-    <col min="17" max="17" width="32.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="4"/>
+    <col min="7" max="7" width="10.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.54296875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="34.1796875" style="10" customWidth="1"/>
+    <col min="15" max="16" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:16">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="25">
+      <c r="A1" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:17">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.5">
+      <c r="A2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="66" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="49" t="s">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:16">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+    <row r="3" spans="1:17" ht="14.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:16">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+    <row r="4" spans="1:17" ht="30" customHeight="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:16">
-      <c r="A5" s="61">
+    <row r="5" spans="1:17" ht="29" hidden="1">
+      <c r="A5" s="39">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:16">
-      <c r="A6" s="61">
+    <row r="6" spans="1:17" ht="14.5" hidden="1">
+      <c r="A6" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="33" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:16">
-      <c r="A7" s="61">
+    <row r="7" spans="1:17" ht="14.5" hidden="1">
+      <c r="A7" s="39">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="33" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:16">
-      <c r="A8" s="61">
+    <row r="8" spans="1:17" ht="14.5" hidden="1">
+      <c r="A8" s="39">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="68" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:16">
-      <c r="A9" s="61">
+    <row r="9" spans="1:17" ht="14.5" hidden="1">
+      <c r="A9" s="39">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="68" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:16">
-      <c r="A10" s="61">
+    <row r="10" spans="1:17" ht="14.5" hidden="1">
+      <c r="A10" s="39">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="33" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="P10" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="1:16">
-      <c r="A11" s="61">
+    <row r="11" spans="1:17" ht="58" hidden="1">
+      <c r="A11" s="39">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="68" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P11" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:16">
-      <c r="A12" s="61">
+    <row r="12" spans="1:17" ht="14.5" hidden="1">
+      <c r="A12" s="39">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="68" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="O12" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="1:16">
-      <c r="A13" s="61">
+    <row r="13" spans="1:17" ht="29" hidden="1">
+      <c r="A13" s="39">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="68" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="33" t="s">
+      <c r="P13" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:16">
-      <c r="A14" s="61">
+    <row r="14" spans="1:17" ht="14.5" hidden="1">
+      <c r="A14" s="39">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="68" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:16">
-      <c r="A15" s="61">
+    <row r="15" spans="1:17" ht="14.5" hidden="1">
+      <c r="A15" s="39">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="33" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="P15" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:16">
-      <c r="A16" s="61">
+    <row r="16" spans="1:17" ht="14.5" hidden="1">
+      <c r="A16" s="39">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="33" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:16">
-      <c r="A17" s="61">
+    <row r="17" spans="1:17" ht="14.5" hidden="1">
+      <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="40"/>
+      <c r="E17" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="68" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="O17" s="33" t="s">
+      <c r="O17" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" ht="33" spans="1:16">
-      <c r="A18" s="61">
+    <row r="18" spans="1:17" ht="29" hidden="1">
+      <c r="A18" s="39">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="68" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P18" s="33" t="s">
+      <c r="P18" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" ht="66" spans="1:16">
-      <c r="A19" s="61">
+    <row r="19" spans="1:17" ht="43.5" hidden="1">
+      <c r="A19" s="39">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>3</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="68" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="P19" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" ht="49.5" spans="1:16">
-      <c r="A20" s="61">
+    <row r="20" spans="1:17" ht="43.5" hidden="1">
+      <c r="A20" s="39">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="40"/>
+      <c r="E20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="68" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="33" t="s">
+      <c r="P20" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" ht="33" spans="1:16">
-      <c r="A21" s="61">
+    <row r="21" spans="1:17" ht="29" hidden="1">
+      <c r="A21" s="39">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="40"/>
+      <c r="E21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4" t="s">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="68" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="O21" s="33" t="s">
+      <c r="O21" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="33" t="s">
+      <c r="P21" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" ht="33" spans="1:16">
-      <c r="A22" s="61">
+    <row r="22" spans="1:17" ht="29" hidden="1">
+      <c r="A22" s="39">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="68" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="O22" s="35" t="s">
+      <c r="O22" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="35" t="s">
+      <c r="P22" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:16">
-      <c r="A23" s="61">
+    <row r="23" spans="1:17" ht="14.5">
+      <c r="A23" s="39">
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="62" t="s">
+      <c r="C23" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="109" t="s">
+        <v>348</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="68" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="O23" s="33" t="s">
+      <c r="O23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="P23" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:16">
-      <c r="A24" s="61">
+    <row r="24" spans="1:17" ht="14.5">
+      <c r="A24" s="39">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="68" t="s">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="O24" s="33" t="s">
+      <c r="O24" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="P24" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:17">
-      <c r="A25" s="61">
+    <row r="25" spans="1:17" ht="14.5">
+      <c r="A25" s="39">
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="N25" s="68"/>
-      <c r="O25" s="33" t="s">
+      <c r="N25" s="44"/>
+      <c r="O25" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P25" s="33" t="s">
+      <c r="P25" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Q25" s="71" t="s">
+      <c r="Q25" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:16">
-      <c r="A26" s="61">
+    <row r="26" spans="1:17" ht="14.5">
+      <c r="A26" s="39">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="33">
         <v>3</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="4" t="s">
+      <c r="G26" s="33"/>
+      <c r="H26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="4" t="s">
+      <c r="I26" s="33"/>
+      <c r="J26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="68" t="s">
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="O26" s="33" t="s">
+      <c r="O26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P26" s="33" t="s">
+      <c r="P26" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:16">
-      <c r="A27" s="61">
+    <row r="27" spans="1:17" ht="14.5">
+      <c r="A27" s="39">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="33" t="s">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P27" s="33" t="s">
+      <c r="P27" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" ht="66" spans="1:16">
-      <c r="A28" s="61">
+    <row r="28" spans="1:17" ht="58">
+      <c r="A28" s="39">
         <v>24</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="68" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P28" s="33" t="s">
+      <c r="P28" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:16">
-      <c r="A29" s="61">
+    <row r="29" spans="1:17" ht="14.5">
+      <c r="A29" s="39">
         <v>25</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="68" t="s">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="O29" s="33" t="s">
+      <c r="O29" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P29" s="33" t="s">
+      <c r="P29" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:16">
-      <c r="A30" s="61">
+    <row r="30" spans="1:17" ht="14.5">
+      <c r="A30" s="39">
         <v>26</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="33">
         <v>3</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="33"/>
+      <c r="H30" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="4" t="s">
+      <c r="I30" s="33"/>
+      <c r="J30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="68" t="s">
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="O30" s="33" t="s">
+      <c r="O30" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P30" s="33" t="s">
+      <c r="P30" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" ht="33" spans="1:16">
-      <c r="A31" s="61">
+    <row r="31" spans="1:17" ht="29">
+      <c r="A31" s="39">
         <v>27</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>3</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="68" t="s">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="O31" s="33" t="s">
+      <c r="O31" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P31" s="33" t="s">
+      <c r="P31" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:16">
-      <c r="A32" s="61">
+    <row r="32" spans="1:17" ht="14.5">
+      <c r="A32" s="39">
         <v>28</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="33" t="s">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P32" s="33" t="s">
+      <c r="P32" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:16">
-      <c r="A33" s="61">
+    <row r="33" spans="1:17" ht="14.5">
+      <c r="A33" s="39">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>3</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4" t="s">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="68" t="s">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="O33" s="33" t="s">
+      <c r="O33" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P33" s="33" t="s">
+      <c r="P33" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" ht="33" spans="1:16">
-      <c r="A34" s="61">
+    <row r="34" spans="1:17" ht="29">
+      <c r="A34" s="39">
         <v>30</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="33">
         <v>3</v>
       </c>
-      <c r="G34" s="48"/>
-      <c r="H34" s="4" t="s">
+      <c r="G34" s="33"/>
+      <c r="H34" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="4" t="s">
+      <c r="I34" s="33"/>
+      <c r="J34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="68" t="s">
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="O34" s="33" t="s">
+      <c r="O34" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P34" s="33" t="s">
+      <c r="P34" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:16">
-      <c r="A35" s="61">
+    <row r="35" spans="1:17" ht="14.5">
+      <c r="A35" s="39">
         <v>31</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4" t="s">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="33" t="s">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P35" s="33" t="s">
+      <c r="P35" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:16">
-      <c r="A36" s="61">
+    <row r="36" spans="1:17" ht="14.5">
+      <c r="A36" s="39">
         <v>32</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>3</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4" t="s">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="68" t="s">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="O36" s="33" t="s">
+      <c r="O36" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P36" s="33" t="s">
+      <c r="P36" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:16">
-      <c r="A37" s="61">
+    <row r="37" spans="1:17" ht="14.5">
+      <c r="A37" s="39">
         <v>33</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>3</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4" t="s">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="68" t="s">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="O37" s="33" t="s">
+      <c r="O37" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P37" s="33" t="s">
+      <c r="P37" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:16">
-      <c r="A38" s="61">
+    <row r="38" spans="1:17" ht="14.5">
+      <c r="A38" s="39">
         <v>34</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="33">
         <v>3</v>
       </c>
-      <c r="G38" s="48"/>
-      <c r="H38" s="4" t="s">
+      <c r="G38" s="33"/>
+      <c r="H38" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="48"/>
-      <c r="J38" s="4" t="s">
+      <c r="I38" s="33"/>
+      <c r="J38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="68" t="s">
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="O38" s="33" t="s">
+      <c r="O38" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P38" s="33" t="s">
+      <c r="P38" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:16">
-      <c r="A39" s="61">
+    <row r="39" spans="1:17" ht="14.5">
+      <c r="A39" s="39">
         <v>35</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>3</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4" t="s">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="68" t="s">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="O39" s="33" t="s">
+      <c r="O39" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P39" s="33" t="s">
+      <c r="P39" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:16">
-      <c r="A40" s="61">
+    <row r="40" spans="1:17" ht="14.5">
+      <c r="A40" s="39">
         <v>36</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>3</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4" t="s">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="68" t="s">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="O40" s="33" t="s">
+      <c r="O40" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P40" s="33" t="s">
+      <c r="P40" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:16">
-      <c r="A41" s="61">
+    <row r="41" spans="1:17" ht="14.5">
+      <c r="A41" s="39">
         <v>37</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>3</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4" t="s">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="68" t="s">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="O41" s="33" t="s">
+      <c r="O41" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P41" s="33" t="s">
+      <c r="P41" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:17">
-      <c r="A42" s="61">
+    <row r="42" spans="1:17" ht="14.5" hidden="1">
+      <c r="A42" s="39">
         <v>38</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F42" s="48">
+      <c r="F42" s="33">
         <v>3</v>
       </c>
-      <c r="G42" s="48"/>
-      <c r="H42" s="4" t="s">
+      <c r="G42" s="33"/>
+      <c r="H42" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="4" t="s">
+      <c r="I42" s="33"/>
+      <c r="J42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="68" t="s">
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="O42" s="33" t="s">
+      <c r="O42" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P42" s="33" t="s">
+      <c r="P42" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Q42" s="71" t="s">
+      <c r="Q42" s="47" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" ht="49.5" spans="1:16">
-      <c r="A43" s="61">
+    <row r="43" spans="1:17" ht="43.5">
+      <c r="A43" s="39">
         <v>39</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="D43" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>3</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4" t="s">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="68" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="O43" s="33" t="s">
+      <c r="O43" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P43" s="33" t="s">
+      <c r="P43" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" ht="33" spans="1:16">
-      <c r="A44" s="61">
+    <row r="44" spans="1:17" ht="29">
+      <c r="A44" s="39">
         <v>40</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>3</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4" t="s">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="68" t="s">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="O44" s="33" t="s">
+      <c r="O44" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P44" s="33" t="s">
+      <c r="P44" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" ht="33" spans="1:16">
-      <c r="A45" s="61">
+    <row r="45" spans="1:17" ht="29" hidden="1">
+      <c r="A45" s="39">
         <v>41</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="62" t="s">
+      <c r="D45" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>2</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4" t="s">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K45" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="33" t="s">
+      <c r="M45" s="8"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P45" s="33" t="s">
+      <c r="P45" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" ht="33" spans="1:17">
-      <c r="A46" s="61">
+    <row r="46" spans="1:17" ht="29" hidden="1">
+      <c r="A46" s="39">
         <v>42</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D46" s="62" t="s">
+      <c r="D46" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>3</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4" t="s">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="15" t="s">
+      <c r="K46" s="3"/>
+      <c r="L46" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="70" t="s">
+      <c r="M46" s="8"/>
+      <c r="N46" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="O46" s="33" t="s">
+      <c r="O46" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P46" s="33" t="s">
+      <c r="P46" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Q46" s="71" t="s">
+      <c r="Q46" s="47" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" ht="33" spans="1:16">
-      <c r="A47" s="61">
+    <row r="47" spans="1:17" ht="29" hidden="1">
+      <c r="A47" s="39">
         <v>43</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>1</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4" t="s">
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="15" t="s">
+      <c r="K47" s="3"/>
+      <c r="L47" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="33" t="s">
+      <c r="M47" s="8"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P47" s="33" t="s">
+      <c r="P47" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:16">
-      <c r="A48" s="61">
+    <row r="48" spans="1:17" ht="14.5" hidden="1">
+      <c r="A48" s="39">
         <v>44</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>1</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4" t="s">
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="33" t="s">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P48" s="33" t="s">
+      <c r="P48" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:16">
-      <c r="A49" s="61">
+    <row r="49" spans="1:17" ht="14.5" hidden="1">
+      <c r="A49" s="39">
         <v>45</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>3</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4" t="s">
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="70" t="s">
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="O49" s="33" t="s">
+      <c r="O49" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P49" s="33" t="s">
+      <c r="P49" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" ht="49.5" spans="1:17">
-      <c r="A50" s="61">
+    <row r="50" spans="1:17" ht="43.5" hidden="1">
+      <c r="A50" s="39">
         <v>46</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>3</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4" t="s">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="68" t="s">
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="O50" s="33" t="s">
+      <c r="O50" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P50" s="33" t="s">
+      <c r="P50" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Q50" s="72" t="s">
+      <c r="Q50" s="48" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:16">
-      <c r="A51" s="61">
+    <row r="51" spans="1:17" ht="14.5" hidden="1">
+      <c r="A51" s="39">
         <v>47</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D51" s="62" t="s">
+      <c r="D51" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>1</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4" t="s">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="33" t="s">
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P51" s="33" t="s">
+      <c r="P51" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:16">
-      <c r="A52" s="61">
+    <row r="52" spans="1:17" ht="14.5" hidden="1">
+      <c r="A52" s="39">
         <v>48</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="D52" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>1</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4" t="s">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="33" t="s">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="P52" s="33" t="s">
+      <c r="P52" s="23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" ht="165" spans="1:16">
-      <c r="A53" s="61">
+    <row r="53" spans="1:17" ht="145" hidden="1">
+      <c r="A53" s="39">
         <v>49</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="40"/>
+      <c r="E53" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>3</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4" t="s">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="68" t="s">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="O53" s="35" t="s">
+      <c r="O53" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="P53" s="35" t="s">
+      <c r="P53" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" ht="66" spans="1:16">
-      <c r="A54" s="61">
+    <row r="54" spans="1:17" ht="58" hidden="1">
+      <c r="A54" s="39">
         <v>50</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="62"/>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="40"/>
+      <c r="E54" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F54" s="33">
         <v>3</v>
       </c>
-      <c r="G54" s="48"/>
-      <c r="H54" s="4" t="s">
+      <c r="G54" s="33"/>
+      <c r="H54" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I54" s="48"/>
-      <c r="J54" s="4" t="s">
+      <c r="I54" s="33"/>
+      <c r="J54" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="15" t="s">
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="O54" s="35" t="s">
+      <c r="O54" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="P54" s="35" t="s">
+      <c r="P54" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" ht="17.25" spans="1:16">
-      <c r="A55" s="61">
+    <row r="55" spans="1:17" ht="14.5" hidden="1">
+      <c r="A55" s="39">
         <v>51</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="22" t="s">
+      <c r="D55" s="42"/>
+      <c r="E55" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F55" s="65">
+      <c r="F55" s="43">
         <v>3</v>
       </c>
-      <c r="G55" s="65"/>
-      <c r="H55" s="22" t="s">
+      <c r="G55" s="43"/>
+      <c r="H55" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="I55" s="65"/>
-      <c r="J55" s="22" t="s">
+      <c r="I55" s="43"/>
+      <c r="J55" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="32" t="s">
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:P55"/>
+  <autoFilter ref="A4:P55" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="圆柱模块1线"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="F2:N2"/>
     <mergeCell ref="O2:P2"/>
@@ -7614,462 +7088,455 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N9:N10"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="9.14285714285714" style="5"/>
-    <col min="4" max="4" width="10.2857142857143" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" style="5"/>
-    <col min="7" max="7" width="10.2857142857143" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.5714285714286" style="17" customWidth="1"/>
-    <col min="10" max="10" width="9.14285714285714" style="5"/>
-    <col min="11" max="11" width="10.2857142857143" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15" style="5" customWidth="1"/>
-    <col min="13" max="13" width="19.5714285714286" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.4285714285714" customWidth="1"/>
-    <col min="15" max="15" width="16.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="10.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="4"/>
+    <col min="7" max="7" width="10.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="4"/>
+    <col min="11" max="11" width="10.26953125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:14">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:15" ht="25">
+      <c r="A1" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:15">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.5">
+      <c r="A2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="24" t="s">
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:14">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:15" ht="14.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="12" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:14">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:15" ht="30" customHeight="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" ht="59.25" customHeight="1" spans="1:14">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:15" ht="59.25" customHeight="1">
+      <c r="A5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="97" t="s">
         <v>283</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>5</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="97" t="s">
         <v>283</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="90" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" ht="59.25" customHeight="1" spans="1:14">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:15" ht="59.25" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="4">
+      <c r="E6" s="98"/>
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="4">
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="3">
         <v>5</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" ht="59.25" customHeight="1" spans="1:14">
-      <c r="A7" s="42" t="s">
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="91"/>
+    </row>
+    <row r="7" spans="1:15" ht="59.25" customHeight="1">
+      <c r="A7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="29">
         <v>4</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="43">
+      <c r="E7" s="99"/>
+      <c r="F7" s="29">
         <v>4</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="43">
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="29">
         <v>5</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="52"/>
-    </row>
-    <row r="8" s="38" customFormat="1" ht="59.25" customHeight="1" spans="1:14">
-      <c r="A8" s="45" t="s">
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="92"/>
+    </row>
+    <row r="8" spans="1:15" s="27" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A8" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="53"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:14">
-      <c r="A9" s="18" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.5">
+      <c r="A9" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="24" t="s">
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:14">
-      <c r="A10" s="19"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:15" ht="14.5">
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:14">
-      <c r="A11" s="19"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="1:15" ht="30" customHeight="1">
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" ht="88" customHeight="1" spans="1:15">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:15" ht="88" customHeight="1">
+      <c r="A12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>4</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="33">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="33">
         <v>1</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="33">
         <v>1</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="O12" s="55" t="s">
+      <c r="O12" s="37" t="s">
         <v>289</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -8083,7 +7550,12 @@
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="N5:N7"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -8091,210 +7563,208 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="3" width="12.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="5"/>
-    <col min="5" max="5" width="15.1428571428571" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.5714285714286" style="17" customWidth="1"/>
-    <col min="8" max="8" width="31.2857142857143" style="17" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="4"/>
+    <col min="5" max="5" width="15.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="31.26953125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="25">
+      <c r="A1" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5">
+      <c r="A2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="34"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="100"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:8">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1" spans="1:8">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:8" ht="33" customHeight="1">
+      <c r="A5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:8">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:8" ht="33" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:8">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:8" ht="33" customHeight="1">
+      <c r="A7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" ht="33" spans="1:8">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:8" ht="29">
+      <c r="A8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="35" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="9" ht="33.75" spans="1:8">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:8" ht="29">
+      <c r="A9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="24" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8306,6 +7776,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -8313,168 +7784,166 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="9.14285714285714" style="5"/>
-    <col min="4" max="4" width="15.1428571428571" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.2857142857143" style="5" customWidth="1"/>
-    <col min="6" max="7" width="17.8571428571429" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.2857142857143" style="17" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="15.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="17.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="25">
+      <c r="A1" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5">
+      <c r="A2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:8">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:8" ht="14.5">
+      <c r="A5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:8" ht="14.5">
+      <c r="A6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:8" ht="14.5">
+      <c r="A7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="14">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="8" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8485,6 +7954,7 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -8492,285 +7962,283 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="22.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="12.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="15.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.14285714285714" style="5"/>
-    <col min="8" max="8" width="15.1428571428571" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.7142857142857" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.4285714285714" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.4285714285714" style="5" customWidth="1"/>
-    <col min="12" max="12" width="13.1428571428571" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="4"/>
+    <col min="8" max="8" width="15.1796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:12">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="25">
+      <c r="A1" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:12">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5">
+      <c r="A2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:12">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:12">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:12" ht="30" customHeight="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:12">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:12" ht="14.5">
+      <c r="A5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:12">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:12" ht="14.5">
+      <c r="A6" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>10</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:12">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:12" ht="14.5">
+      <c r="A7" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:12">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:12" ht="14.5">
+      <c r="A8" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>10</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8783,6 +8251,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -8790,401 +8259,402 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="M2" sqref="M2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="8.14285714285714" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="9.85714285714286" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.57142857142857" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.5714285714286" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.5714285714286" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85714285714286" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.57142857142857" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.5714285714286" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.5714285714286" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.8571428571429" style="17" customWidth="1"/>
-    <col min="13" max="13" width="9.14285714285714" style="5"/>
-    <col min="14" max="15" width="10.2857142857143" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15" style="5" customWidth="1"/>
-    <col min="17" max="17" width="19.5714285714286" style="17" customWidth="1"/>
-    <col min="18" max="18" width="12.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" style="4"/>
+    <col min="14" max="15" width="10.26953125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15" style="4" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:18">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" ht="25">
+      <c r="A1" s="77" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:18">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.5">
+      <c r="A2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="24" t="s">
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:18">
-      <c r="A3" s="19"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="19" t="s">
+    <row r="3" spans="1:18" ht="14.5">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:18">
-      <c r="A4" s="19"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" ht="54.75" customHeight="1" spans="1:18">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:18" ht="54.75" customHeight="1">
+      <c r="A5" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="19">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="101" t="s">
         <v>319</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>14</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="8">
         <v>1</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="101" t="s">
         <v>319</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" ht="54.75" customHeight="1" spans="1:18">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:18" ht="54.75" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="19">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>13</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="4">
+      <c r="L6" s="101"/>
+      <c r="M6" s="3">
         <v>14</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="8">
         <v>1</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="33"/>
-    </row>
-    <row r="7" ht="54.75" customHeight="1" spans="1:18">
-      <c r="A7" s="29" t="s">
+      <c r="Q6" s="101"/>
+      <c r="R6" s="103"/>
+    </row>
+    <row r="7" spans="1:18" ht="54.75" customHeight="1">
+      <c r="A7" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="19">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="8">
         <v>1</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="4">
+      <c r="L7" s="101"/>
+      <c r="M7" s="3">
         <v>14</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="8">
         <v>1</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="33"/>
-    </row>
-    <row r="8" ht="54.75" customHeight="1" spans="1:18">
-      <c r="A8" s="29" t="s">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="103"/>
+    </row>
+    <row r="8" spans="1:18" ht="54.75" customHeight="1">
+      <c r="A8" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="13">
         <v>13</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="22">
         <v>1</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="14">
         <v>13</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="22">
         <v>1</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="22">
+      <c r="L8" s="102"/>
+      <c r="M8" s="14">
         <v>14</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="22">
         <v>1</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="25"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="R5:R8"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:L2"/>
@@ -9192,13 +8662,11 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="R5:R8"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/江苏明美MES项目设备接口交互数据内容明细表-20180129.xlsx
+++ b/文档/江苏明美MES项目设备接口交互数据内容明细表-20180129.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\项目\明美项目\Git_mingmei\MingMeiMES\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2D108F02-50A3-4FE3-B99F-FCA1C73BAAC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{906E8810-D2B5-401E-A3FC-3B9DF4AC2EC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="7950" tabRatio="745" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2-数据上传'!$A$4:$P$55</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -46,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">注：RUN代表正常运行，STOP代表停机
@@ -60,6 +61,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>打码之后扫描失败，线体也需上传条码，并上传扫码结果为NG</t>
@@ -68,6 +70,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -92,6 +95,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>注： 1测试参数 2设备参数</t>
@@ -100,6 +104,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -114,6 +119,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>注： 1测试参数 2设备参数</t>
@@ -122,6 +128,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -136,6 +143,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>注： 1测试参数 2设备参数</t>
@@ -144,6 +152,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -168,6 +177,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>注：允许上传多个测试项目及结果，当仅当OK项目数量等于机种测试项目数量时为OK，其余状况均为NG</t>
@@ -176,6 +186,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -199,6 +210,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">注：RUN代表正常运行，STOP代表停机
@@ -213,6 +225,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1、正常运行状态返回为空；
@@ -222,6 +235,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -246,6 +260,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1、正常运行状态返回为空；
@@ -256,6 +271,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -268,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="354">
   <si>
     <t>文档更新说明</t>
   </si>
@@ -347,6 +363,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、由设备人员在</t>
@@ -363,6 +380,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">系统设备报警代码对照表中维护对应报警等级；
@@ -380,6 +398,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、报警信息上传时取消上传报警等级字段，设备上传报警信息至</t>
@@ -396,6 +415,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统后，</t>
@@ -412,6 +432,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统依据报警代码自动带出对应等级。</t>
@@ -423,6 +444,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>江苏明美</t>
@@ -441,6 +463,7 @@
         <b/>
         <sz val="14"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项目设备接口交互数据内容明细表</t>
@@ -465,6 +488,7 @@
         <sz val="10"/>
         <color theme="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>生产任务</t>
@@ -480,6 +504,7 @@
         <sz val="10"/>
         <color theme="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数据上传</t>
@@ -501,6 +526,7 @@
         <sz val="10"/>
         <color theme="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>获取、上传设备参数、测试标准</t>
@@ -519,6 +545,7 @@
         <sz val="10"/>
         <color theme="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>过程参数上传</t>
@@ -534,6 +561,7 @@
         <sz val="10"/>
         <color theme="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>报警信息上传</t>
@@ -549,6 +577,7 @@
         <sz val="10"/>
         <color theme="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>获取产品</t>
@@ -574,6 +603,7 @@
         <sz val="10"/>
         <color theme="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>获取马头枪测试标准</t>
@@ -591,1904 +621,1991 @@
         <u/>
         <sz val="10"/>
         <color theme="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上传马头枪数据</t>
-    </r>
-  </si>
-  <si>
-    <t>马头枪工序的产品条码、测试项目、测试数据上传</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机信息发布</t>
-    </r>
-  </si>
-  <si>
-    <t>1-11均可</t>
-  </si>
-  <si>
-    <t>当发生需要停机的状况时，在需停机的工作中心上传或请求数据时，MES系统返回停机信息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停机信息上传</t>
-    </r>
-  </si>
-  <si>
-    <t>1、设备依据停机指令停机时，上传停机信息；
-2、设备停机后，又恢复运行时，上传停机恢复信息。</t>
-  </si>
-  <si>
-    <t>自动线生产任务设备接口交互内容明细表</t>
-  </si>
-  <si>
-    <t>所属线别</t>
-  </si>
-  <si>
-    <t>工作中心SN</t>
-  </si>
-  <si>
-    <t>工作中心名称</t>
-  </si>
-  <si>
-    <t>设备请求条码</t>
-  </si>
-  <si>
-    <t>MES发布内容</t>
-  </si>
-  <si>
-    <t>设备读取内容</t>
-  </si>
-  <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>料号</t>
-  </si>
-  <si>
-    <t>产品条码</t>
-  </si>
-  <si>
-    <t>极性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M_FLAG </t>
-  </si>
-  <si>
-    <t>M_WORKSTATION_SN</t>
-  </si>
-  <si>
-    <t>M_MODEL</t>
-  </si>
-  <si>
-    <t>M_SN</t>
-  </si>
-  <si>
-    <t>M_POLAR</t>
-  </si>
-  <si>
-    <t>方形铝壳1线</t>
-  </si>
-  <si>
-    <t>L00100301</t>
-  </si>
-  <si>
-    <t>L001端板雕刻01</t>
-  </si>
-  <si>
-    <t>机种料号</t>
-  </si>
-  <si>
-    <t>模块条码</t>
-  </si>
-  <si>
-    <t>圆柱模块1线</t>
-  </si>
-  <si>
-    <t>Y00100101</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Y001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>胶框上料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>01</t>
-    </r>
-  </si>
-  <si>
-    <t>圆柱模组1线</t>
-  </si>
-  <si>
-    <t>M00100101</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>M001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块堆叠</t>
-    </r>
-  </si>
-  <si>
-    <t>模组条码</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回目录</t>
-    </r>
-  </si>
-  <si>
-    <t>设备接口上传交互数据内容明细表</t>
-  </si>
-  <si>
-    <t>线体设备名称</t>
-  </si>
-  <si>
-    <t>设备上传内容</t>
-  </si>
-  <si>
-    <t>MES返回结果</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>设备SN</t>
-  </si>
-  <si>
-    <t>制令单号</t>
-  </si>
-  <si>
-    <t>子组件条码</t>
-  </si>
-  <si>
-    <t>容器SN</t>
-  </si>
-  <si>
-    <t>档位</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>处理结果</t>
-  </si>
-  <si>
-    <t>停机信息</t>
-  </si>
-  <si>
-    <t>M_DEVICE_SN</t>
-  </si>
-  <si>
-    <t>M_MO</t>
-  </si>
-  <si>
-    <t>M_UNION_SN</t>
-  </si>
-  <si>
-    <t>M_CONTAINER_SN</t>
-  </si>
-  <si>
-    <t>M_LEVEL</t>
-  </si>
-  <si>
-    <t>M_ITEMVALUE</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>CONTROL_TYPE</t>
-  </si>
-  <si>
-    <t>L00100101</t>
-  </si>
-  <si>
-    <t>L001电芯测试01</t>
-  </si>
-  <si>
-    <t>电芯条码</t>
-  </si>
-  <si>
-    <t>K值:值:mV/h|cell电压:值:V|cell内阻:值:mΩ|电池厚度:值:mm</t>
-  </si>
-  <si>
-    <t>OK/NG</t>
-  </si>
-  <si>
-    <t>RUN/STOP</t>
-  </si>
-  <si>
-    <t>L00100401</t>
-  </si>
-  <si>
-    <t>L001电芯堆叠01</t>
-  </si>
-  <si>
-    <t>L00100501</t>
-  </si>
-  <si>
-    <t>L001铝壳极性检测01</t>
-  </si>
-  <si>
-    <t>电芯极性:OK/NG:</t>
-  </si>
-  <si>
-    <t>L00100601</t>
-  </si>
-  <si>
-    <t>L001挤压测试01</t>
-  </si>
-  <si>
-    <t>挤压压力:值:Kgf|模块长度:值:mm</t>
-  </si>
-  <si>
-    <t>L00100602</t>
-  </si>
-  <si>
-    <t>L001挤压测试02</t>
-  </si>
-  <si>
-    <t>L00100801</t>
-  </si>
-  <si>
-    <t>L001模块外框焊接</t>
-  </si>
-  <si>
-    <t>外框焊接位置:OK/NG:|外框焊接功率1:值:W|外框焊接功率2:值:W|外框焊接功率3:值:W|外框焊接功率4:值:W|外框焊接功率5:值:W|外框焊接功率6:值:W</t>
-  </si>
-  <si>
-    <t>L00100901</t>
-  </si>
-  <si>
-    <t>L001焊接检测</t>
-  </si>
-  <si>
-    <t>外框焊缝检测:OK/NG:</t>
-  </si>
-  <si>
-    <t>L00101001</t>
-  </si>
-  <si>
-    <t>L001绝缘测试</t>
-  </si>
-  <si>
-    <t>电芯与外壳绝缘:最小值:GΩ|相邻电芯正极绝缘:最小值:GΩ</t>
-  </si>
-  <si>
-    <t>L00101101</t>
-  </si>
-  <si>
-    <t>L001灌胶</t>
-  </si>
-  <si>
-    <t>灌胶胶量:值:ml</t>
-  </si>
-  <si>
-    <t>L00101201</t>
-  </si>
-  <si>
-    <t>L001胶水固化开始</t>
-  </si>
-  <si>
-    <t>L00101202</t>
-  </si>
-  <si>
-    <t>L001胶水固化结束</t>
-  </si>
-  <si>
-    <t>L00101301</t>
-  </si>
-  <si>
-    <t>L001清洗前视觉检测</t>
-  </si>
-  <si>
-    <t>极柱清洗位置:OK/NG:</t>
-  </si>
-  <si>
-    <t>L00101401</t>
-  </si>
-  <si>
-    <t>L001激光清洗</t>
-  </si>
-  <si>
-    <t>激光清洗结果:OK/NG:|极柱清洗范围:值:mm|极柱清洗功率:值:W</t>
-  </si>
-  <si>
-    <t>L00101601</t>
-  </si>
-  <si>
-    <t>L001导流排焊接</t>
-  </si>
-  <si>
-    <t>导流排焊接定位结果:OK/NG:|导流排焊接功率:值:W|导流排焊接离焦量:值:mm|导流排焊接速度:值:%|导流排焊接直径:值:mm</t>
-  </si>
-  <si>
-    <t>L00101701</t>
-  </si>
-  <si>
-    <t>L001铝壳模块DCIR测试</t>
-  </si>
-  <si>
-    <t>DCIR值:值:mΩ|DCIR测试放电电流1:值:A|DCIR测试放电电流2:值:A|DCIR测试放电时间:值:s|DCIR测试静置时间:值:s</t>
-  </si>
-  <si>
-    <t>L00101801</t>
-  </si>
-  <si>
-    <t>L001模块绝缘测试</t>
-  </si>
-  <si>
-    <t>正极对壳体绝缘值:值:MΩ|负极对壳体绝缘值:值:MΩ</t>
-  </si>
-  <si>
-    <t>L00101901</t>
-  </si>
-  <si>
-    <t>L001模块充放电测试01</t>
-  </si>
-  <si>
-    <t>测试前静态电压极差:值:mV|放电3min电压极差:值:mV|温升:值:℃|温度极差:值:℃</t>
-  </si>
-  <si>
-    <t>德普</t>
-  </si>
-  <si>
-    <t>A线支架上下料</t>
-  </si>
-  <si>
-    <t>Y001胶框上料01</t>
-  </si>
-  <si>
-    <t>扫码结果:OK/NG:</t>
-  </si>
-  <si>
-    <t>Y00100201</t>
-  </si>
-  <si>
-    <t>A线1#、2#点胶机</t>
-  </si>
-  <si>
-    <t>Y001胶框涂UV胶01</t>
-  </si>
-  <si>
-    <t>UV胶胶量:值:mg</t>
-  </si>
-  <si>
-    <t>Y00100301</t>
-  </si>
-  <si>
-    <t>A线绑定工位</t>
-  </si>
-  <si>
-    <t>Y001电芯入胶框01</t>
-  </si>
-  <si>
-    <t>模块档位</t>
-  </si>
-  <si>
-    <t>模块档位包含电压、阻值、容量</t>
-  </si>
-  <si>
-    <t>Y00100401</t>
-  </si>
-  <si>
-    <t>Y001圆柱极性检测01</t>
-  </si>
-  <si>
-    <t>极性检测结果:OK/NG:</t>
-  </si>
-  <si>
-    <t>Y00100501</t>
-  </si>
-  <si>
-    <t>A线1#人工位</t>
-  </si>
-  <si>
-    <t>Y001安装上胶框01</t>
-  </si>
-  <si>
-    <t>Y00100601</t>
-  </si>
-  <si>
-    <t>A线锁螺丝机</t>
-  </si>
-  <si>
-    <t>Y001安装上下胶框固定螺丝01</t>
-  </si>
-  <si>
-    <t>螺丝1扭矩:值:Nm|螺丝2扭矩:值:Nm|螺丝3扭矩:值:Nm|螺丝4扭矩:值:Nm|螺丝1角度:值:°|螺丝2角度:值:°|螺丝3角度:值:°|螺丝4角度:值:°</t>
-  </si>
-  <si>
-    <t>Y00100701</t>
-  </si>
-  <si>
-    <t>A线UV固化</t>
-  </si>
-  <si>
-    <t>Y001UV固化01</t>
-  </si>
-  <si>
-    <t>UV胶固化时间:值:s|UV胶固化温度:值:℃</t>
-  </si>
-  <si>
-    <t>Y00100801</t>
-  </si>
-  <si>
-    <t>A线3#点胶机</t>
-  </si>
-  <si>
-    <t>Y001上胶框涂胶01</t>
-  </si>
-  <si>
-    <t>涂胶胶量:值:mg</t>
-  </si>
-  <si>
-    <t>Y00100901</t>
-  </si>
-  <si>
-    <t>A线1#烘烤机</t>
-  </si>
-  <si>
-    <t>Y001上胶框胶水烘烤01</t>
-  </si>
-  <si>
-    <t>烘烤最高温度:值:℃|烘烤最低温度:值:℃|烘烤时间:值:s</t>
-  </si>
-  <si>
-    <t>Y00101001</t>
-  </si>
-  <si>
-    <t>A线2#人工位</t>
-  </si>
-  <si>
-    <t>Y001安装上胶框导流片01</t>
-  </si>
-  <si>
-    <t>Y00101101</t>
-  </si>
-  <si>
-    <t>Y001下胶框涂胶01</t>
-  </si>
-  <si>
-    <t>Y00101201</t>
-  </si>
-  <si>
-    <t>A线2#烘烤机</t>
-  </si>
-  <si>
-    <t>Y001下胶框胶水烘烤01</t>
-  </si>
-  <si>
-    <t>Y00101301</t>
-  </si>
-  <si>
-    <t>A线3#人工位</t>
-  </si>
-  <si>
-    <t>Y001安装下胶框导流片01</t>
-  </si>
-  <si>
-    <t>Y00101401</t>
-  </si>
-  <si>
-    <t>A线导流片CCD检查</t>
-  </si>
-  <si>
-    <t>Y001导流片CCD检查01</t>
-  </si>
-  <si>
-    <t>导流片安装结果:OK/NG:</t>
-  </si>
-  <si>
-    <t>Y00101501</t>
-  </si>
-  <si>
-    <t>B线1#激光清洗机</t>
-  </si>
-  <si>
-    <t>Y001反面激光清洗01</t>
-  </si>
-  <si>
-    <t>清洗范围:值:mm|清洗功率:值:W</t>
-  </si>
-  <si>
-    <t>Y00101601</t>
-  </si>
-  <si>
-    <t>B线1#溢胶检测</t>
-  </si>
-  <si>
-    <t>Y001反面清洗检测01</t>
-  </si>
-  <si>
-    <t>激光清洗结果:OK/NG:</t>
-  </si>
-  <si>
-    <t>Y00101701</t>
-  </si>
-  <si>
-    <t>B线1#铝丝焊接</t>
-  </si>
-  <si>
-    <t>Y001反面铝丝焊接01</t>
-  </si>
-  <si>
-    <t>电压:值:V|压力:值:N|时间:值:s</t>
-  </si>
-  <si>
-    <t>Y00101801</t>
-  </si>
-  <si>
-    <t>B线2#激光清洗机</t>
-  </si>
-  <si>
-    <t>Y001正面激光清洗01</t>
-  </si>
-  <si>
-    <t>Y00101901</t>
-  </si>
-  <si>
-    <t>B线2#溢胶检测</t>
-  </si>
-  <si>
-    <t>Y001正面清洗检测01</t>
-  </si>
-  <si>
-    <t>Y00102001</t>
-  </si>
-  <si>
-    <t>B线2#铝丝焊接</t>
-  </si>
-  <si>
-    <t>Y001正面铝丝焊接01</t>
-  </si>
-  <si>
-    <t>正极、负极、铝板三组值</t>
-  </si>
-  <si>
-    <t>Y00102101</t>
-  </si>
-  <si>
-    <t>B线DCIR检查</t>
-  </si>
-  <si>
-    <t>Y001圆柱模块DCIR测试01</t>
-  </si>
-  <si>
-    <t>Y00102201</t>
-  </si>
-  <si>
-    <t>C线绝缘板锁螺丝机</t>
-  </si>
-  <si>
-    <t>Y001上下绝缘板安装固定01</t>
-  </si>
-  <si>
-    <t>螺丝1扭矩:值:Nm|螺丝2扭矩:值:Nm|螺丝1角度:值:°|螺丝2角度:值:°</t>
-  </si>
-  <si>
-    <t>C线绑定工位</t>
-  </si>
-  <si>
-    <t>M001模块堆叠</t>
-  </si>
-  <si>
-    <t>模块条码1|模块条码2|…..</t>
-  </si>
-  <si>
-    <t>工装板SN</t>
-  </si>
-  <si>
-    <t>M00100201</t>
-  </si>
-  <si>
-    <t>C线打带机</t>
-  </si>
-  <si>
-    <t>M001PET捆扎</t>
-  </si>
-  <si>
-    <t>模组长度:值:mm|模组压力:值:Kgf</t>
-  </si>
-  <si>
-    <t>模组长度：打带机/模组压力：夹紧机</t>
-  </si>
-  <si>
-    <t>M00100301</t>
-  </si>
-  <si>
-    <t>C线打码扫码机</t>
-  </si>
-  <si>
-    <t>M001打码扫码</t>
-  </si>
-  <si>
-    <t>M00100401</t>
-  </si>
-  <si>
-    <t>C线1#人工位</t>
-  </si>
-  <si>
-    <t>M001安装连接片</t>
-  </si>
-  <si>
-    <t>M00100501</t>
-  </si>
-  <si>
-    <t>C线2#人工位</t>
-  </si>
-  <si>
-    <t>M001电压采集线安装及测试</t>
-  </si>
-  <si>
-    <t>电压采集线测试结果:OK/NG:</t>
-  </si>
-  <si>
-    <t>M00100601</t>
-  </si>
-  <si>
-    <t>C线模组焊接机</t>
-  </si>
-  <si>
-    <t>M001连接片焊接</t>
-  </si>
-  <si>
-    <t>焊接定位结果:OK/NG:|焊接功率:值:W|焊接离焦量:值:mm|焊接速度:值:%|焊接直径:值:mm</t>
-  </si>
-  <si>
-    <t>焊接直径没有、离焦量
-计算之后上传</t>
-  </si>
-  <si>
-    <t>M00100701</t>
-  </si>
-  <si>
-    <t>C线3#人工位</t>
-  </si>
-  <si>
-    <t>M001安装侧板</t>
-  </si>
-  <si>
-    <t>M00100801</t>
-  </si>
-  <si>
-    <t>C线模组下线</t>
-  </si>
-  <si>
-    <t>M001模组下线</t>
-  </si>
-  <si>
-    <t>PACK生产1线</t>
-  </si>
-  <si>
-    <t>P00100501</t>
-  </si>
-  <si>
-    <t>P001PACK EOL测试01</t>
-  </si>
-  <si>
-    <t>PACK箱条码</t>
-  </si>
-  <si>
-    <t>BMS单体温度差异:值:℃|BMS总电压精度测试结果:OK/NG:|快充功能测试结果:OK/NG:|整车通讯测试结果:OK/NG:|BMS单体电压一致性测试结果:OK/NG:|正极对地绝缘电阻测试:值:MΩ|负极对地绝缘电阻测试:值:MΩ|继电器通断测试结果:OK/NG:|加热电阻测试:值:Ω|维修开关测试结果:OK/NG:|交流内阻测试:值:Ω|BMS绝缘测试结果:OK/NG:|开路电压测试:值:V</t>
-  </si>
-  <si>
-    <t>P00100601</t>
-  </si>
-  <si>
-    <t>P001PACK充放电测试01</t>
-  </si>
-  <si>
-    <t>批号</t>
-  </si>
-  <si>
-    <t>测试前静态电压极差:值:mV|放电末端电压极差:值:mV|过程温升:值:℃|过程温度极差:值:℃|过程最大温度:值:℃|起始温度极差:值:℃|放电容量:值:Ah</t>
-  </si>
-  <si>
-    <t>P00100801</t>
-  </si>
-  <si>
-    <t>P001IP67测试01</t>
-  </si>
-  <si>
-    <t>气密性测试结果:值:Pam³/s</t>
-  </si>
-  <si>
-    <t>获取、上传设备参数、测试标准内容明细表</t>
-  </si>
-  <si>
-    <t>线体SN</t>
-  </si>
-  <si>
-    <t>设备请求字段</t>
-  </si>
-  <si>
-    <t>MES发布字段</t>
-  </si>
-  <si>
-    <t>设备下载并返回下载内容</t>
-  </si>
-  <si>
-    <t>数据项类型</t>
-  </si>
-  <si>
-    <t>测试数据</t>
-  </si>
-  <si>
-    <t>判定结果</t>
-  </si>
-  <si>
-    <t>M_AREA</t>
-  </si>
-  <si>
-    <t>M_ITEM_TYPE</t>
-  </si>
-  <si>
-    <t>L001</t>
-  </si>
-  <si>
-    <t>1或2（1测试参数 2设备参数）</t>
-  </si>
-  <si>
-    <t>料号1$机种规格[测试项目1:单值:单位|测试项目2:最小值-最大值:单位]#料号2$机种规格[测试项目1:单值:单位|测试项目2:最小值-最大值:单位]#料号3$机种规格[测试项目1:单值:单位|测试项目2:最小值-最大值:单位]</t>
-  </si>
-  <si>
-    <t>Y001</t>
-  </si>
-  <si>
-    <t>M001</t>
-  </si>
-  <si>
-    <t>例如</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2ME0000001A1$TWSME04003120C[DCIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试放电电流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1:500:A|DCIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试放电电流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2:60:A|DCIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试放电时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:10:S|DCIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试静置时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:1:S|DCIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:0-4:mΩ|K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:0-.05:mV/h|cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电压</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:3.615-3.63:V|cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内阻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:.3-.5:mΩ|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导流排焊接功率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:4500-4800:W|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导流排焊接离焦量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:.5:mm|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导流排焊接速度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:.04:|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导流排焊接直径</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:10-24:mm|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导流排清洗功率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:114:w|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电池厚度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:47.3-50:mm|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电池容量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:50.1-99.9:Ah|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电芯数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:4:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电压极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:.5-1.5:mV|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>堆叠半成品位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:10-100:|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>负极对壳体绝缘值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:300-99999:MΩ|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固化时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:19-21:min|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固化温度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:57-63:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灌胶胶量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:190-210:ml|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>极柱清洗功率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:114:w|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挤压压力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:100-500:Kgf|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块长度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:625.68-626.68:mm|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块绝缘测试电压</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:500:V|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块绝缘测试时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:15:S|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内阻极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:.012-.2:mΩ|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外框焊接功率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:2700-2820:W|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正极对壳体绝缘值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:300-99999:MΩ]#DXLH20170001[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电池厚度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:47.3-50:mm|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电压</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:1-5:|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内阻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:5-6:|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>容量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:10-20:]#FXMK20170001$ABS[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电池容量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:50.1-99.9:Ah|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>负极对壳体绝缘值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:0-99999:|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灌胶胶量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:190-210:ml|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挤压测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2:0-500:|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挤压压力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:100-500:Kgf|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绝缘测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:0-5999:|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块绝缘测试电压</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:500:V|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块绝缘测试时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:15:S|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外框焊接拉力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:1000-99999:Kgf|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正极对壳体绝缘值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:0-99999:]</t>
-    </r>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-ME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：设备测试项</t>
-    </r>
-  </si>
-  <si>
-    <t>过程参数上传内容明细表</t>
-  </si>
-  <si>
-    <t>工序</t>
-  </si>
-  <si>
-    <t>设备上传字段</t>
-  </si>
-  <si>
-    <t>测试时间</t>
-  </si>
-  <si>
-    <t>M_TEST_TIME</t>
-  </si>
-  <si>
-    <t>电芯涂胶</t>
-  </si>
-  <si>
-    <t>电芯涂胶胶量:值:mg</t>
-  </si>
-  <si>
-    <t>测试时间(例如：2016-12-26 10:42:21),为空时默认为当前时间</t>
-  </si>
-  <si>
-    <t>外框涂胶</t>
-  </si>
-  <si>
-    <t>外框涂胶胶量:值:mg</t>
-  </si>
-  <si>
-    <t>胶水固化</t>
-  </si>
-  <si>
-    <t>胶水固化温度1：最小值：℃|胶水固化温度2：最小值：℃|胶水固化温度3：最小值：℃|胶水固化温度4：最小值：℃|胶水固化温度1：最大值：℃|胶水固化温度2：最大值：℃|胶水固化温度3：最大值：℃|胶水固化温度4：最大值：℃</t>
-  </si>
-  <si>
-    <t>报警信息上传内容明细表</t>
-  </si>
-  <si>
-    <t>报警代码</t>
-  </si>
-  <si>
-    <t>报警等级</t>
-  </si>
-  <si>
-    <t>报警状态</t>
-  </si>
-  <si>
-    <t>M_ERROR_CODE</t>
-  </si>
-  <si>
-    <t>M_ERROR_LEVEL</t>
-  </si>
-  <si>
-    <t>M_ERROR_STATUS</t>
-  </si>
-  <si>
-    <t>0或1（0发生、1恢复）</t>
-  </si>
-  <si>
-    <t>获取产品SN设备接口交互内容明细表（德普测试设备）</t>
-  </si>
-  <si>
-    <t>测试流程名称</t>
-  </si>
-  <si>
-    <t>M_ROUTE</t>
-  </si>
-  <si>
-    <t>获取、上传马头枪测试标准内容明细表</t>
-  </si>
-  <si>
-    <t>M_GROUP</t>
-  </si>
-  <si>
-    <t>Pack生产1线</t>
-  </si>
-  <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>外箱预处理</t>
-  </si>
-  <si>
-    <t>PK00101</t>
-  </si>
-  <si>
-    <t>机种料号1[测试类型1：测试项目1：值：单位（测试项目:下限值-上限值:单位）|测试类型2：测试项目2：值：单位]#机种料号2[测试类型1：测试项目1：值：单位（测试项目:下限值-上限值:单位）|测试类型2：测试项目2：值：单位]</t>
-  </si>
-  <si>
-    <t>模块/模组固定</t>
-  </si>
-  <si>
-    <t>PK00301</t>
-  </si>
-  <si>
-    <t>软连接安装</t>
-  </si>
-  <si>
-    <t>PK00401</t>
-  </si>
-  <si>
-    <t>安装上盖</t>
-  </si>
-  <si>
-    <t>PK00701</t>
-  </si>
-  <si>
-    <t>马头枪测试数据上传内容明细表</t>
-  </si>
-  <si>
-    <t>RES:OK/NG</t>
-  </si>
-  <si>
-    <t>P00100101</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外箱预处理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>01</t>
-    </r>
-  </si>
-  <si>
-    <t>测试项1:值1:单位1|测试项2:值2:单位2|测试项3:值3:单位……</t>
-  </si>
-  <si>
-    <t>P00100301</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模组固定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>01</t>
-    </r>
-  </si>
-  <si>
-    <t>P00100401</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>软连接安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>01</t>
-    </r>
-  </si>
-  <si>
-    <t>P00100701</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装上盖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>01</t>
-    </r>
-  </si>
-  <si>
-    <t>设备上传数据或请求数据</t>
-  </si>
-  <si>
-    <t>MES返回内容</t>
-  </si>
-  <si>
-    <t>各数据类型对应要求必填字段</t>
-  </si>
-  <si>
-    <t>依据数据类型返回对应内容</t>
-  </si>
-  <si>
-    <t>对应工作中心SN</t>
-  </si>
-  <si>
-    <t>与请求对应的数据类型</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>工作中心</t>
-  </si>
-  <si>
-    <t>端板雕刻未做完重置条码发布状态</t>
-  </si>
-  <si>
-    <t>产品条码1|产品条码2|产品条码3</t>
-  </si>
-  <si>
-    <t>Y00200101</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Y00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>上传马头枪数据</t>
+    </r>
+  </si>
+  <si>
+    <t>马头枪工序的产品条码、测试项目、测试数据上传</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停机信息发布</t>
+    </r>
+  </si>
+  <si>
+    <t>1-11均可</t>
+  </si>
+  <si>
+    <t>当发生需要停机的状况时，在需停机的工作中心上传或请求数据时，MES系统返回停机信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停机信息上传</t>
+    </r>
+  </si>
+  <si>
+    <t>1、设备依据停机指令停机时，上传停机信息；
+2、设备停机后，又恢复运行时，上传停机恢复信息。</t>
+  </si>
+  <si>
+    <t>自动线生产任务设备接口交互内容明细表</t>
+  </si>
+  <si>
+    <t>所属线别</t>
+  </si>
+  <si>
+    <t>工作中心SN</t>
+  </si>
+  <si>
+    <t>工作中心名称</t>
+  </si>
+  <si>
+    <t>设备请求条码</t>
+  </si>
+  <si>
+    <t>MES发布内容</t>
+  </si>
+  <si>
+    <t>设备读取内容</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>料号</t>
+  </si>
+  <si>
+    <t>产品条码</t>
+  </si>
+  <si>
+    <t>极性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_FLAG </t>
+  </si>
+  <si>
+    <t>M_WORKSTATION_SN</t>
+  </si>
+  <si>
+    <t>M_MODEL</t>
+  </si>
+  <si>
+    <t>M_SN</t>
+  </si>
+  <si>
+    <t>M_POLAR</t>
+  </si>
+  <si>
+    <t>方形铝壳1线</t>
+  </si>
+  <si>
+    <t>L00100301</t>
+  </si>
+  <si>
+    <t>L001端板雕刻01</t>
+  </si>
+  <si>
+    <t>机种料号</t>
+  </si>
+  <si>
+    <t>模块条码</t>
+  </si>
+  <si>
+    <t>圆柱模块1线</t>
+  </si>
+  <si>
+    <t>Y00100101</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Y001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胶框上料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <t>圆柱模组1线</t>
+  </si>
+  <si>
+    <t>M00100101</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块堆叠</t>
+    </r>
+  </si>
+  <si>
+    <t>模组条码</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回目录</t>
+    </r>
+  </si>
+  <si>
+    <t>设备接口上传交互数据内容明细表</t>
+  </si>
+  <si>
+    <t>线体设备名称</t>
+  </si>
+  <si>
+    <t>设备上传内容</t>
+  </si>
+  <si>
+    <t>MES返回结果</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>设备SN</t>
+  </si>
+  <si>
+    <t>制令单号</t>
+  </si>
+  <si>
+    <t>子组件条码</t>
+  </si>
+  <si>
+    <t>容器SN</t>
+  </si>
+  <si>
+    <t>档位</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>处理结果</t>
+  </si>
+  <si>
+    <t>停机信息</t>
+  </si>
+  <si>
+    <t>M_DEVICE_SN</t>
+  </si>
+  <si>
+    <t>M_MO</t>
+  </si>
+  <si>
+    <t>M_UNION_SN</t>
+  </si>
+  <si>
+    <t>M_CONTAINER_SN</t>
+  </si>
+  <si>
+    <t>M_LEVEL</t>
+  </si>
+  <si>
+    <t>M_ITEMVALUE</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>CONTROL_TYPE</t>
+  </si>
+  <si>
+    <t>L00100101</t>
+  </si>
+  <si>
+    <t>L001电芯测试01</t>
+  </si>
+  <si>
+    <t>电芯条码</t>
+  </si>
+  <si>
+    <t>K值:值:mV/h|cell电压:值:V|cell内阻:值:mΩ|电池厚度:值:mm</t>
+  </si>
+  <si>
+    <t>OK/NG</t>
+  </si>
+  <si>
+    <t>RUN/STOP</t>
+  </si>
+  <si>
+    <t>L00100401</t>
+  </si>
+  <si>
+    <t>L001电芯堆叠01</t>
+  </si>
+  <si>
+    <t>L00100501</t>
+  </si>
+  <si>
+    <t>L001铝壳极性检测01</t>
+  </si>
+  <si>
+    <t>电芯极性:OK/NG:</t>
+  </si>
+  <si>
+    <t>L00100601</t>
+  </si>
+  <si>
+    <t>L001挤压测试01</t>
+  </si>
+  <si>
+    <t>挤压压力:值:Kgf|模块长度:值:mm</t>
+  </si>
+  <si>
+    <t>L00100602</t>
+  </si>
+  <si>
+    <t>L001挤压测试02</t>
+  </si>
+  <si>
+    <t>L00100801</t>
+  </si>
+  <si>
+    <t>L001模块外框焊接</t>
+  </si>
+  <si>
+    <t>外框焊接位置:OK/NG:|外框焊接功率1:值:W|外框焊接功率2:值:W|外框焊接功率3:值:W|外框焊接功率4:值:W|外框焊接功率5:值:W|外框焊接功率6:值:W</t>
+  </si>
+  <si>
+    <t>L00100901</t>
+  </si>
+  <si>
+    <t>L001焊接检测</t>
+  </si>
+  <si>
+    <t>外框焊缝检测:OK/NG:</t>
+  </si>
+  <si>
+    <t>L00101001</t>
+  </si>
+  <si>
+    <t>L001绝缘测试</t>
+  </si>
+  <si>
+    <t>电芯与外壳绝缘:最小值:GΩ|相邻电芯正极绝缘:最小值:GΩ</t>
+  </si>
+  <si>
+    <t>L00101101</t>
+  </si>
+  <si>
+    <t>L001灌胶</t>
+  </si>
+  <si>
+    <t>灌胶胶量:值:ml</t>
+  </si>
+  <si>
+    <t>L00101201</t>
+  </si>
+  <si>
+    <t>L001胶水固化开始</t>
+  </si>
+  <si>
+    <t>L00101202</t>
+  </si>
+  <si>
+    <t>L001胶水固化结束</t>
+  </si>
+  <si>
+    <t>L00101301</t>
+  </si>
+  <si>
+    <t>L001清洗前视觉检测</t>
+  </si>
+  <si>
+    <t>极柱清洗位置:OK/NG:</t>
+  </si>
+  <si>
+    <t>L00101401</t>
+  </si>
+  <si>
+    <t>L001激光清洗</t>
+  </si>
+  <si>
+    <t>激光清洗结果:OK/NG:|极柱清洗范围:值:mm|极柱清洗功率:值:W</t>
+  </si>
+  <si>
+    <t>L00101601</t>
+  </si>
+  <si>
+    <t>L001导流排焊接</t>
+  </si>
+  <si>
+    <t>导流排焊接定位结果:OK/NG:|导流排焊接功率:值:W|导流排焊接离焦量:值:mm|导流排焊接速度:值:%|导流排焊接直径:值:mm</t>
+  </si>
+  <si>
+    <t>L00101701</t>
+  </si>
+  <si>
+    <t>L001铝壳模块DCIR测试</t>
+  </si>
+  <si>
+    <t>DCIR值:值:mΩ|DCIR测试放电电流1:值:A|DCIR测试放电电流2:值:A|DCIR测试放电时间:值:s|DCIR测试静置时间:值:s</t>
+  </si>
+  <si>
+    <t>L00101801</t>
+  </si>
+  <si>
+    <t>L001模块绝缘测试</t>
+  </si>
+  <si>
+    <t>正极对壳体绝缘值:值:MΩ|负极对壳体绝缘值:值:MΩ</t>
+  </si>
+  <si>
+    <t>L00101901</t>
+  </si>
+  <si>
+    <t>L001模块充放电测试01</t>
+  </si>
+  <si>
+    <t>测试前静态电压极差:值:mV|放电3min电压极差:值:mV|温升:值:℃|温度极差:值:℃</t>
+  </si>
+  <si>
+    <t>德普</t>
+  </si>
+  <si>
+    <t>A线支架上下料</t>
+  </si>
+  <si>
+    <t>Y001胶框上料01</t>
+  </si>
+  <si>
+    <t>扫码结果:OK/NG:</t>
+  </si>
+  <si>
+    <t>Y00100201</t>
+  </si>
+  <si>
+    <t>A线1#、2#点胶机</t>
+  </si>
+  <si>
+    <t>Y001胶框涂UV胶01</t>
+  </si>
+  <si>
+    <t>UV胶胶量:值:mg</t>
+  </si>
+  <si>
+    <t>Y00100301</t>
+  </si>
+  <si>
+    <t>A线绑定工位</t>
+  </si>
+  <si>
+    <t>Y001电芯入胶框01</t>
+  </si>
+  <si>
+    <t>模块档位</t>
+  </si>
+  <si>
+    <t>模块档位包含电压、阻值、容量</t>
+  </si>
+  <si>
+    <t>Y00100401</t>
+  </si>
+  <si>
+    <t>Y001圆柱极性检测01</t>
+  </si>
+  <si>
+    <t>极性检测结果:OK/NG:</t>
+  </si>
+  <si>
+    <t>Y00100501</t>
+  </si>
+  <si>
+    <t>A线1#人工位</t>
+  </si>
+  <si>
+    <t>Y001安装上胶框01</t>
+  </si>
+  <si>
+    <t>Y00100601</t>
+  </si>
+  <si>
+    <t>A线锁螺丝机</t>
+  </si>
+  <si>
+    <t>Y001安装上下胶框固定螺丝01</t>
+  </si>
+  <si>
+    <t>螺丝1扭矩:值:Nm|螺丝2扭矩:值:Nm|螺丝3扭矩:值:Nm|螺丝4扭矩:值:Nm|螺丝1角度:值:°|螺丝2角度:值:°|螺丝3角度:值:°|螺丝4角度:值:°</t>
+  </si>
+  <si>
+    <t>Y00100701</t>
+  </si>
+  <si>
+    <t>A线UV固化</t>
+  </si>
+  <si>
+    <t>Y001UV固化01</t>
+  </si>
+  <si>
+    <t>Y00100801</t>
+  </si>
+  <si>
+    <t>A线3#点胶机</t>
+  </si>
+  <si>
+    <t>Y001上胶框涂胶01</t>
+  </si>
+  <si>
+    <t>涂胶胶量:值:mg</t>
+  </si>
+  <si>
+    <t>Y00100901</t>
+  </si>
+  <si>
+    <t>A线1#烘烤机</t>
+  </si>
+  <si>
+    <t>Y001上胶框胶水烘烤01</t>
+  </si>
+  <si>
+    <t>烘烤最高温度:值:℃|烘烤最低温度:值:℃|烘烤时间:值:s</t>
+  </si>
+  <si>
+    <t>Y00101001</t>
+  </si>
+  <si>
+    <t>A线2#人工位</t>
+  </si>
+  <si>
+    <t>Y001安装上胶框导流片01</t>
+  </si>
+  <si>
+    <t>Y00101101</t>
+  </si>
+  <si>
+    <t>Y001下胶框涂胶01</t>
+  </si>
+  <si>
+    <t>Y00101201</t>
+  </si>
+  <si>
+    <t>A线2#烘烤机</t>
+  </si>
+  <si>
+    <t>Y001下胶框胶水烘烤01</t>
+  </si>
+  <si>
+    <t>Y00101301</t>
+  </si>
+  <si>
+    <t>A线3#人工位</t>
+  </si>
+  <si>
+    <t>Y001安装下胶框导流片01</t>
+  </si>
+  <si>
+    <t>Y00101401</t>
+  </si>
+  <si>
+    <t>A线导流片CCD检查</t>
+  </si>
+  <si>
+    <t>Y001导流片CCD检查01</t>
+  </si>
+  <si>
+    <t>导流片安装结果:OK/NG:</t>
+  </si>
+  <si>
+    <t>Y00101501</t>
+  </si>
+  <si>
+    <t>B线1#激光清洗机</t>
+  </si>
+  <si>
+    <t>Y001反面激光清洗01</t>
+  </si>
+  <si>
+    <t>清洗范围:值:mm|清洗功率:值:W</t>
+  </si>
+  <si>
+    <t>Y00101601</t>
+  </si>
+  <si>
+    <t>B线1#溢胶检测</t>
+  </si>
+  <si>
+    <t>Y001反面清洗检测01</t>
+  </si>
+  <si>
+    <t>激光清洗结果:OK/NG:</t>
+  </si>
+  <si>
+    <t>Y00101701</t>
+  </si>
+  <si>
+    <t>B线1#铝丝焊接</t>
+  </si>
+  <si>
+    <t>Y001反面铝丝焊接01</t>
+  </si>
+  <si>
+    <t>电压:值:V|压力:值:N|时间:值:s</t>
+  </si>
+  <si>
+    <t>Y00101801</t>
+  </si>
+  <si>
+    <t>B线2#激光清洗机</t>
+  </si>
+  <si>
+    <t>Y001正面激光清洗01</t>
+  </si>
+  <si>
+    <t>Y00101901</t>
+  </si>
+  <si>
+    <t>B线2#溢胶检测</t>
+  </si>
+  <si>
+    <t>Y001正面清洗检测01</t>
+  </si>
+  <si>
+    <t>Y00102001</t>
+  </si>
+  <si>
+    <t>B线2#铝丝焊接</t>
+  </si>
+  <si>
+    <t>Y001正面铝丝焊接01</t>
+  </si>
+  <si>
+    <t>正极、负极、铝板三组值</t>
+  </si>
+  <si>
+    <t>Y00102101</t>
+  </si>
+  <si>
+    <t>B线DCIR检查</t>
+  </si>
+  <si>
+    <t>Y001圆柱模块DCIR测试01</t>
+  </si>
+  <si>
+    <t>Y00102201</t>
+  </si>
+  <si>
+    <t>C线绝缘板锁螺丝机</t>
+  </si>
+  <si>
+    <t>Y001上下绝缘板安装固定01</t>
+  </si>
+  <si>
+    <t>螺丝1扭矩:值:Nm|螺丝2扭矩:值:Nm|螺丝1角度:值:°|螺丝2角度:值:°</t>
+  </si>
+  <si>
+    <t>C线绑定工位</t>
+  </si>
+  <si>
+    <t>M001模块堆叠</t>
+  </si>
+  <si>
+    <t>模块条码1|模块条码2|…..</t>
+  </si>
+  <si>
+    <t>工装板SN</t>
+  </si>
+  <si>
+    <t>M00100201</t>
+  </si>
+  <si>
+    <t>C线打带机</t>
+  </si>
+  <si>
+    <t>M001PET捆扎</t>
+  </si>
+  <si>
+    <t>模组长度:值:mm|模组压力:值:Kgf</t>
+  </si>
+  <si>
+    <t>模组长度：打带机/模组压力：夹紧机</t>
+  </si>
+  <si>
+    <t>M00100301</t>
+  </si>
+  <si>
+    <t>C线打码扫码机</t>
+  </si>
+  <si>
+    <t>M001打码扫码</t>
+  </si>
+  <si>
+    <t>M00100401</t>
+  </si>
+  <si>
+    <t>C线1#人工位</t>
+  </si>
+  <si>
+    <t>M001安装连接片</t>
+  </si>
+  <si>
+    <t>M00100501</t>
+  </si>
+  <si>
+    <t>C线2#人工位</t>
+  </si>
+  <si>
+    <t>M001电压采集线安装及测试</t>
+  </si>
+  <si>
+    <t>电压采集线测试结果:OK/NG:</t>
+  </si>
+  <si>
+    <t>M00100601</t>
+  </si>
+  <si>
+    <t>C线模组焊接机</t>
+  </si>
+  <si>
+    <t>M001连接片焊接</t>
+  </si>
+  <si>
+    <t>焊接定位结果:OK/NG:|焊接功率:值:W|焊接离焦量:值:mm|焊接速度:值:%|焊接直径:值:mm</t>
+  </si>
+  <si>
+    <t>焊接直径没有、离焦量
+计算之后上传</t>
+  </si>
+  <si>
+    <t>M00100701</t>
+  </si>
+  <si>
+    <t>C线3#人工位</t>
+  </si>
+  <si>
+    <t>M001安装侧板</t>
+  </si>
+  <si>
+    <t>M00100801</t>
+  </si>
+  <si>
+    <t>C线模组下线</t>
+  </si>
+  <si>
+    <t>M001模组下线</t>
+  </si>
+  <si>
+    <t>PACK生产1线</t>
+  </si>
+  <si>
+    <t>P00100501</t>
+  </si>
+  <si>
+    <t>P001PACK EOL测试01</t>
+  </si>
+  <si>
+    <t>PACK箱条码</t>
+  </si>
+  <si>
+    <t>BMS单体温度差异:值:℃|BMS总电压精度测试结果:OK/NG:|快充功能测试结果:OK/NG:|整车通讯测试结果:OK/NG:|BMS单体电压一致性测试结果:OK/NG:|正极对地绝缘电阻测试:值:MΩ|负极对地绝缘电阻测试:值:MΩ|继电器通断测试结果:OK/NG:|加热电阻测试:值:Ω|维修开关测试结果:OK/NG:|交流内阻测试:值:Ω|BMS绝缘测试结果:OK/NG:|开路电压测试:值:V</t>
+  </si>
+  <si>
+    <t>P00100601</t>
+  </si>
+  <si>
+    <t>P001PACK充放电测试01</t>
+  </si>
+  <si>
+    <t>批号</t>
+  </si>
+  <si>
+    <t>测试前静态电压极差:值:mV|放电末端电压极差:值:mV|过程温升:值:℃|过程温度极差:值:℃|过程最大温度:值:℃|起始温度极差:值:℃|放电容量:值:Ah</t>
+  </si>
+  <si>
+    <t>P00100801</t>
+  </si>
+  <si>
+    <t>P001IP67测试01</t>
+  </si>
+  <si>
+    <t>气密性测试结果:值:Pam³/s</t>
+  </si>
+  <si>
+    <t>获取、上传设备参数、测试标准内容明细表</t>
+  </si>
+  <si>
+    <t>线体SN</t>
+  </si>
+  <si>
+    <t>设备请求字段</t>
+  </si>
+  <si>
+    <t>MES发布字段</t>
+  </si>
+  <si>
+    <t>设备下载并返回下载内容</t>
+  </si>
+  <si>
+    <t>数据项类型</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>判定结果</t>
+  </si>
+  <si>
+    <t>M_AREA</t>
+  </si>
+  <si>
+    <t>M_ITEM_TYPE</t>
+  </si>
+  <si>
+    <t>L001</t>
+  </si>
+  <si>
+    <t>1或2（1测试参数 2设备参数）</t>
+  </si>
+  <si>
+    <t>料号1$机种规格[测试项目1:单值:单位|测试项目2:最小值-最大值:单位]#料号2$机种规格[测试项目1:单值:单位|测试项目2:最小值-最大值:单位]#料号3$机种规格[测试项目1:单值:单位|测试项目2:最小值-最大值:单位]</t>
+  </si>
+  <si>
+    <t>Y001</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>例如</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2ME0000001A1$TWSME04003120C[DCIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试放电电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1:500:A|DCIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试放电电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2:60:A|DCIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试放电时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:10:S|DCIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试静置时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:1:S|DCIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:0-4:mΩ|K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:0-.05:mV/h|cell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:3.615-3.63:V|cell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内阻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:.3-.5:mΩ|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导流排焊接功率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:4500-4800:W|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导流排焊接离焦量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:.5:mm|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导流排焊接速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:.04:|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导流排焊接直径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:10-24:mm|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导流排清洗功率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:114:w|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电池厚度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:47.3-50:mm|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电池容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:50.1-99.9:Ah|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电芯数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电压极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:.5-1.5:mV|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆叠半成品位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:10-100:|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负极对壳体绝缘值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:300-99999:MΩ|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固化时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:19-21:min|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固化温度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:57-63:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灌胶胶量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:190-210:ml|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极柱清洗功率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:114:w|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挤压压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:100-500:Kgf|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:625.68-626.68:mm|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块绝缘测试电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:500:V|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块绝缘测试时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:15:S|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内阻极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:.012-.2:mΩ|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外框焊接功率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:2700-2820:W|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正极对壳体绝缘值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:300-99999:MΩ]#DXLH20170001[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电池厚度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:47.3-50:mm|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:1-5:|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内阻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:5-6:|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:10-20:]#FXMK20170001$ABS[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电池容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:50.1-99.9:Ah|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负极对壳体绝缘值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:0-99999:|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灌胶胶量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:190-210:ml|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挤压测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2:0-500:|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挤压压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:100-500:Kgf|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝缘测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:0-5999:|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块绝缘测试电压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:500:V|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块绝缘测试时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:15:S|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外框焊接拉力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:1000-99999:Kgf|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正极对壳体绝缘值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:0-99999:]</t>
+    </r>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：设备测试项</t>
+    </r>
+  </si>
+  <si>
+    <t>过程参数上传内容明细表</t>
+  </si>
+  <si>
+    <t>工序</t>
+  </si>
+  <si>
+    <t>设备上传字段</t>
+  </si>
+  <si>
+    <t>测试时间</t>
+  </si>
+  <si>
+    <t>M_TEST_TIME</t>
+  </si>
+  <si>
+    <t>电芯涂胶</t>
+  </si>
+  <si>
+    <t>电芯涂胶胶量:值:mg</t>
+  </si>
+  <si>
+    <t>测试时间(例如：2016-12-26 10:42:21),为空时默认为当前时间</t>
+  </si>
+  <si>
+    <t>外框涂胶</t>
+  </si>
+  <si>
+    <t>外框涂胶胶量:值:mg</t>
+  </si>
+  <si>
+    <t>胶水固化</t>
+  </si>
+  <si>
+    <t>胶水固化温度1：最小值：℃|胶水固化温度2：最小值：℃|胶水固化温度3：最小值：℃|胶水固化温度4：最小值：℃|胶水固化温度1：最大值：℃|胶水固化温度2：最大值：℃|胶水固化温度3：最大值：℃|胶水固化温度4：最大值：℃</t>
+  </si>
+  <si>
+    <t>报警信息上传内容明细表</t>
+  </si>
+  <si>
+    <t>报警代码</t>
+  </si>
+  <si>
+    <t>报警等级</t>
+  </si>
+  <si>
+    <t>报警状态</t>
+  </si>
+  <si>
+    <t>M_ERROR_CODE</t>
+  </si>
+  <si>
+    <t>M_ERROR_LEVEL</t>
+  </si>
+  <si>
+    <t>M_ERROR_STATUS</t>
+  </si>
+  <si>
+    <t>0或1（0发生、1恢复）</t>
+  </si>
+  <si>
+    <t>获取产品SN设备接口交互内容明细表（德普测试设备）</t>
+  </si>
+  <si>
+    <t>测试流程名称</t>
+  </si>
+  <si>
+    <t>M_ROUTE</t>
+  </si>
+  <si>
+    <t>获取、上传马头枪测试标准内容明细表</t>
+  </si>
+  <si>
+    <t>M_GROUP</t>
+  </si>
+  <si>
+    <t>Pack生产1线</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>外箱预处理</t>
+  </si>
+  <si>
+    <t>PK00101</t>
+  </si>
+  <si>
+    <t>机种料号1[测试类型1：测试项目1：值：单位（测试项目:下限值-上限值:单位）|测试类型2：测试项目2：值：单位]#机种料号2[测试类型1：测试项目1：值：单位（测试项目:下限值-上限值:单位）|测试类型2：测试项目2：值：单位]</t>
+  </si>
+  <si>
+    <t>模块/模组固定</t>
+  </si>
+  <si>
+    <t>PK00301</t>
+  </si>
+  <si>
+    <t>软连接安装</t>
+  </si>
+  <si>
+    <t>PK00401</t>
+  </si>
+  <si>
+    <t>安装上盖</t>
+  </si>
+  <si>
+    <t>PK00701</t>
+  </si>
+  <si>
+    <t>马头枪测试数据上传内容明细表</t>
+  </si>
+  <si>
+    <t>RES:OK/NG</t>
+  </si>
+  <si>
+    <t>P00100101</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外箱预处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <t>测试项1:值1:单位1|测试项2:值2:单位2|测试项3:值3:单位……</t>
+  </si>
+  <si>
+    <t>P00100301</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模组固定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <t>P00100401</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软连接安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <t>P00100701</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装上盖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <t>设备上传数据或请求数据</t>
+  </si>
+  <si>
+    <t>MES返回内容</t>
+  </si>
+  <si>
+    <t>各数据类型对应要求必填字段</t>
+  </si>
+  <si>
+    <t>依据数据类型返回对应内容</t>
+  </si>
+  <si>
+    <t>对应工作中心SN</t>
+  </si>
+  <si>
+    <t>与请求对应的数据类型</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>工作中心</t>
+  </si>
+  <si>
+    <t>端板雕刻未做完重置条码发布状态</t>
+  </si>
+  <si>
+    <t>产品条码1|产品条码2|产品条码3</t>
+  </si>
+  <si>
+    <t>Y00200101</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>00101</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>A线4#点胶机</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y00100801</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y00101101</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV胶固化时间:值:s|UV胶固化温度:值:℃</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y00100701</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y00100301</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2498,34 +2615,40 @@
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2544,11 +2667,13 @@
       <b/>
       <sz val="14"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2556,6 +2681,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2568,6 +2694,7 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2575,22 +2702,20 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3260,6 +3385,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3335,6 +3463,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3347,24 +3493,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3391,9 +3519,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3688,11 +3813,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:3" ht="14.5">
       <c r="A2" s="2" t="s">
@@ -3715,7 +3840,7 @@
       <c r="C3" s="60"/>
     </row>
     <row r="4" spans="1:3" ht="14.5">
-      <c r="A4" s="67">
+      <c r="A4" s="68">
         <v>43105</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -3726,7 +3851,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
@@ -3735,7 +3860,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="101.5">
-      <c r="A6" s="67"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -3744,7 +3869,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.5">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -3753,7 +3878,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.5">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3762,7 +3887,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.5">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
@@ -3771,7 +3896,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="87">
-      <c r="A10" s="68">
+      <c r="A10" s="69">
         <v>43125</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3782,7 +3907,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A11" s="68"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="64" t="s">
         <v>18</v>
       </c>
@@ -3796,7 +3921,7 @@
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3825,43 +3950,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25">
-      <c r="A1" s="77" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="A1" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="14.5">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
@@ -3878,13 +4003,13 @@
         <v>89</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
@@ -3906,13 +4031,13 @@
     </row>
     <row r="5" spans="1:9" ht="29">
       <c r="A5" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>328</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>329</v>
       </c>
       <c r="D5" s="14">
         <v>12</v>
@@ -3921,13 +4046,13 @@
         <v>84</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>104</v>
@@ -3935,13 +4060,13 @@
     </row>
     <row r="6" spans="1:9" ht="29">
       <c r="A6" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="D6" s="14">
         <v>12</v>
@@ -3950,13 +4075,13 @@
         <v>84</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>104</v>
@@ -3964,13 +4089,13 @@
     </row>
     <row r="7" spans="1:9" ht="29">
       <c r="A7" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="D7" s="14">
         <v>12</v>
@@ -3979,13 +4104,13 @@
         <v>84</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>104</v>
@@ -3993,13 +4118,13 @@
     </row>
     <row r="8" spans="1:9" ht="29">
       <c r="A8" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>336</v>
       </c>
       <c r="D8" s="14">
         <v>12</v>
@@ -4008,13 +4133,13 @@
         <v>84</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>104</v>
@@ -4028,7 +4153,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -4056,39 +4181,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="14.5">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="78" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" ht="14.5">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="107" t="s">
-        <v>339</v>
+      <c r="B3" s="108" t="s">
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="107" t="s">
-        <v>340</v>
+      <c r="D3" s="108" t="s">
+        <v>339</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>98</v>
@@ -4101,11 +4226,11 @@
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="5" t="s">
         <v>98</v>
       </c>
@@ -4118,17 +4243,17 @@
         <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4139,7 +4264,7 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -4165,30 +4290,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" ht="14.5">
-      <c r="A2" s="94" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="A2" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>339</v>
+        <v>343</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>338</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>91</v>
@@ -4201,7 +4326,7 @@
       <c r="B4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="5" t="s">
         <v>99</v>
       </c>
@@ -4211,7 +4336,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
@@ -4224,7 +4349,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -4249,14 +4374,14 @@
   <sheetData>
     <row r="1" spans="2:3" ht="25.5">
       <c r="B1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="14.5">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="79"/>
     </row>
     <row r="6" spans="2:3" ht="14.5">
       <c r="B6" s="2" t="s">
@@ -4279,14 +4404,14 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:C5"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4310,12 +4435,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" ht="14.5">
       <c r="A2" s="50" t="s">
@@ -4346,10 +4471,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5">
-      <c r="A4" s="71">
+      <c r="A4" s="72">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="3">
@@ -4360,8 +4485,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5">
-      <c r="A5" s="71"/>
-      <c r="B5" s="74"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -4370,8 +4495,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5">
-      <c r="A6" s="71"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="3">
         <v>3</v>
       </c>
@@ -4380,10 +4505,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5">
-      <c r="A7" s="71">
+      <c r="A7" s="72">
         <v>3</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="75" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3">
@@ -4394,8 +4519,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5">
-      <c r="A8" s="71"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="3">
         <v>5</v>
       </c>
@@ -4446,10 +4571,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.5">
-      <c r="A12" s="72">
+      <c r="A12" s="73">
         <v>7</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="76" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="3">
@@ -4460,8 +4585,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.5">
-      <c r="A13" s="73"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="3">
         <v>14</v>
       </c>
@@ -4575,7 +4700,7 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B12:B13"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" location="'1-生产任务'!A1" display="生产任务" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B4:B6" location="'2-数据上传'!A1" display="数据上传" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -4622,57 +4747,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
     </row>
     <row r="2" spans="1:15" ht="14.5">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="14.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
@@ -4711,9 +4836,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
@@ -4907,7 +5032,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O9" location="目录!A1" display="返回目录" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
@@ -4922,9 +5047,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -4947,66 +5072,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:17" ht="14.5">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="85" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="86"/>
+      <c r="P2" s="87"/>
       <c r="Q2" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
@@ -5042,11 +5167,11 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="2" t="s">
         <v>61</v>
       </c>
@@ -5253,13 +5378,13 @@
         <v>111</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="83" t="s">
         <v>70</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="83" t="s">
+      <c r="N9" s="84" t="s">
         <v>113</v>
       </c>
       <c r="O9" s="23" t="s">
@@ -5291,11 +5416,11 @@
         <v>114</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="82"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="83"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="23" t="s">
         <v>104</v>
       </c>
@@ -5763,7 +5888,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>151</v>
@@ -5775,8 +5900,8 @@
         <v>3</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="109" t="s">
-        <v>348</v>
+      <c r="H23" s="65" t="s">
+        <v>347</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
@@ -5843,7 +5968,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>159</v>
@@ -6017,7 +6142,7 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
@@ -6027,7 +6152,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="44" t="s">
-        <v>176</v>
+        <v>351</v>
       </c>
       <c r="O29" s="23" t="s">
         <v>104</v>
@@ -6043,21 +6168,21 @@
       <c r="B30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="E30" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F30" s="33">
         <v>3</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I30" s="33"/>
       <c r="J30" s="3" t="s">
@@ -6067,7 +6192,7 @@
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
       <c r="N30" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O30" s="23" t="s">
         <v>104</v>
@@ -6084,20 +6209,20 @@
         <v>71</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="E31" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F31" s="3">
         <v>3</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
@@ -6107,7 +6232,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O31" s="23" t="s">
         <v>104</v>
@@ -6124,20 +6249,20 @@
         <v>71</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="E32" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
@@ -6161,21 +6286,21 @@
       <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="F33" s="3">
         <v>3</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
@@ -6185,7 +6310,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O33" s="23" t="s">
         <v>104</v>
@@ -6202,20 +6327,20 @@
         <v>71</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="E34" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="F34" s="33">
         <v>3</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I34" s="33"/>
       <c r="J34" s="3" t="s">
@@ -6225,7 +6350,7 @@
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
       <c r="N34" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O34" s="23" t="s">
         <v>104</v>
@@ -6242,20 +6367,20 @@
         <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="E35" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
@@ -6280,20 +6405,20 @@
         <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="E36" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="F36" s="3">
         <v>3</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
@@ -6303,7 +6428,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O36" s="23" t="s">
         <v>104</v>
@@ -6320,20 +6445,20 @@
         <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="E37" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="F37" s="3">
         <v>3</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
@@ -6343,7 +6468,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O37" s="23" t="s">
         <v>104</v>
@@ -6360,20 +6485,20 @@
         <v>71</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="E38" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="F38" s="33">
         <v>3</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I38" s="33"/>
       <c r="J38" s="3" t="s">
@@ -6383,7 +6508,7 @@
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
       <c r="N38" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O38" s="23" t="s">
         <v>104</v>
@@ -6400,20 +6525,20 @@
         <v>71</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="E39" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
@@ -6423,7 +6548,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O39" s="23" t="s">
         <v>104</v>
@@ -6440,20 +6565,20 @@
         <v>71</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="E40" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="F40" s="3">
         <v>3</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
@@ -6463,7 +6588,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O40" s="23" t="s">
         <v>104</v>
@@ -6480,20 +6605,20 @@
         <v>71</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="E41" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="F41" s="3">
         <v>3</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="s">
@@ -6503,7 +6628,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O41" s="23" t="s">
         <v>104</v>
@@ -6520,20 +6645,20 @@
         <v>74</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="E42" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="F42" s="33">
         <v>3</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I42" s="33"/>
       <c r="J42" s="3" t="s">
@@ -6543,7 +6668,7 @@
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
       <c r="N42" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O42" s="23" t="s">
         <v>104</v>
@@ -6552,7 +6677,7 @@
         <v>105</v>
       </c>
       <c r="Q42" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="43.5">
@@ -6563,20 +6688,20 @@
         <v>71</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="E43" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="F43" s="3">
         <v>3</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="s">
@@ -6603,20 +6728,20 @@
         <v>71</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="E44" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="F44" s="3">
         <v>3</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
@@ -6626,7 +6751,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O44" s="23" t="s">
         <v>104</v>
@@ -6646,10 +6771,10 @@
         <v>75</v>
       </c>
       <c r="D45" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
@@ -6663,10 +6788,10 @@
         <v>77</v>
       </c>
       <c r="K45" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L45" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="3"/>
@@ -6685,20 +6810,20 @@
         <v>74</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="E46" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="F46" s="3">
         <v>3</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
@@ -6706,11 +6831,11 @@
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O46" s="23" t="s">
         <v>104</v>
@@ -6719,7 +6844,7 @@
         <v>105</v>
       </c>
       <c r="Q46" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="29" hidden="1">
@@ -6730,20 +6855,20 @@
         <v>74</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="E47" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
@@ -6751,7 +6876,7 @@
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="3"/>
@@ -6770,20 +6895,20 @@
         <v>74</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="E48" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
@@ -6808,20 +6933,20 @@
         <v>74</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="E49" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="F49" s="3">
         <v>3</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="s">
@@ -6831,7 +6956,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O49" s="23" t="s">
         <v>104</v>
@@ -6848,20 +6973,20 @@
         <v>74</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="E50" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F50" s="3">
         <v>3</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
@@ -6871,7 +6996,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O50" s="23" t="s">
         <v>104</v>
@@ -6880,7 +7005,7 @@
         <v>105</v>
       </c>
       <c r="Q50" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.5" hidden="1">
@@ -6891,20 +7016,20 @@
         <v>74</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="E51" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3" t="s">
@@ -6929,20 +7054,20 @@
         <v>74</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="E52" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="s">
@@ -6964,31 +7089,31 @@
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D53" s="40"/>
       <c r="E53" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F53" s="3">
         <v>3</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O53" s="24" t="s">
         <v>150</v>
@@ -7002,31 +7127,31 @@
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F54" s="33">
         <v>3</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I54" s="33"/>
       <c r="J54" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="33"/>
       <c r="N54" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O54" s="24" t="s">
         <v>150</v>
@@ -7040,31 +7165,31 @@
         <v>51</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F55" s="43">
         <v>3</v>
       </c>
       <c r="G55" s="43"/>
       <c r="H55" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I55" s="43"/>
       <c r="J55" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K55" s="43"/>
       <c r="L55" s="43"/>
       <c r="M55" s="43"/>
       <c r="N55" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
@@ -7089,7 +7214,7 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -7126,47 +7251,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.5">
+      <c r="A2" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.5">
-      <c r="A2" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="78" t="s">
+      <c r="C2" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="79" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="78" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="16" t="s">
         <v>82</v>
       </c>
@@ -7175,65 +7300,65 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>277</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>97</v>
@@ -7242,10 +7367,10 @@
         <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>97</v>
@@ -7259,42 +7384,42 @@
         <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="94" t="s">
         <v>281</v>
-      </c>
-      <c r="E5" s="97" t="s">
-        <v>282</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="I5" s="94" t="s">
         <v>282</v>
-      </c>
-      <c r="I5" s="97" t="s">
-        <v>283</v>
       </c>
       <c r="J5" s="3">
         <v>5</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L5" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="L5" s="97" t="s">
+      <c r="M5" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="M5" s="97" t="s">
-        <v>283</v>
-      </c>
-      <c r="N5" s="90" t="s">
+      <c r="N5" s="97" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7303,68 +7428,68 @@
         <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" s="98"/>
+        <v>283</v>
+      </c>
+      <c r="E6" s="95"/>
       <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
+        <v>283</v>
+      </c>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="3">
         <v>5</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="91"/>
+        <v>283</v>
+      </c>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="98"/>
     </row>
     <row r="7" spans="1:15" ht="59.25" customHeight="1">
       <c r="A7" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7" s="29">
         <v>4</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="99"/>
+        <v>284</v>
+      </c>
+      <c r="E7" s="96"/>
       <c r="F7" s="29">
         <v>4</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
+        <v>284</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="29">
         <v>5</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="92"/>
+        <v>284</v>
+      </c>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:15" s="27" customFormat="1" ht="59.25" customHeight="1">
       <c r="A8" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -7381,93 +7506,93 @@
       <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="14.5">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="79" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="78" t="s">
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.5">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>277</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="11" spans="1:15" ht="30" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>97</v>
@@ -7476,10 +7601,10 @@
         <v>61</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>97</v>
@@ -7493,13 +7618,13 @@
         <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" s="33">
         <v>1</v>
@@ -7508,35 +7633,40 @@
         <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H12" s="33">
         <v>1</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J12" s="3">
         <v>5</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L12" s="33">
         <v>1</v>
       </c>
       <c r="M12" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="N12" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="O12" s="37" t="s">
         <v>288</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -7549,13 +7679,8 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -7583,39 +7708,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5">
+      <c r="A2" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.5">
-      <c r="A2" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="78" t="s">
+      <c r="D2" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="100"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:8" ht="14.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
@@ -7623,19 +7748,19 @@
         <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
@@ -7643,13 +7768,13 @@
         <v>92</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>97</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" customHeight="1">
@@ -7657,23 +7782,23 @@
         <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" s="3">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>296</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" customHeight="1">
@@ -7681,23 +7806,23 @@
         <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1">
@@ -7705,23 +7830,23 @@
         <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29">
@@ -7729,7 +7854,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
@@ -7739,11 +7864,11 @@
         <v>84</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29">
@@ -7751,7 +7876,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14">
@@ -7761,11 +7886,11 @@
         <v>84</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7776,7 +7901,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -7804,36 +7929,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25">
-      <c r="A1" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="A1" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="14.5">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="B2" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="14.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
@@ -7841,21 +7966,21 @@
         <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
@@ -7863,16 +7988,16 @@
         <v>92</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.5">
@@ -7880,7 +8005,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="3">
         <v>7</v>
@@ -7889,14 +8014,14 @@
         <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.5">
@@ -7904,7 +8029,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
@@ -7913,14 +8038,14 @@
         <v>84</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.5">
@@ -7928,7 +8053,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7" s="14">
         <v>7</v>
@@ -7937,14 +8062,14 @@
         <v>84</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7954,7 +8079,7 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -7987,49 +8112,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25">
-      <c r="A1" s="77" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="A1" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="14.5">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="79" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" spans="1:12" ht="14.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
@@ -8055,13 +8180,13 @@
         <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
@@ -8087,7 +8212,7 @@
         <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.5">
@@ -8125,18 +8250,18 @@
         <v>70</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.5">
       <c r="A6" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
@@ -8145,7 +8270,7 @@
         <v>84</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G6" s="3">
         <v>10</v>
@@ -8154,27 +8279,27 @@
         <v>84</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.5">
       <c r="A7" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
@@ -8183,7 +8308,7 @@
         <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G7" s="3">
         <v>10</v>
@@ -8192,27 +8317,27 @@
         <v>84</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>69</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.5">
       <c r="A8" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D8" s="3">
         <v>10</v>
@@ -8221,7 +8346,7 @@
         <v>84</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G8" s="3">
         <v>10</v>
@@ -8230,16 +8355,16 @@
         <v>84</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8251,7 +8376,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -8289,138 +8414,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25">
-      <c r="A1" s="77" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
+      <c r="A1" s="78" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
     </row>
     <row r="2" spans="1:18" ht="14.5">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="106" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="105" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="79" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="78" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
       <c r="R2" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="106"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>277</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="106"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>279</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>280</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>279</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>280</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>97</v>
@@ -8429,13 +8554,13 @@
         <v>61</v>
       </c>
       <c r="N4" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>279</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>280</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>97</v>
@@ -8446,22 +8571,22 @@
     </row>
     <row r="5" spans="1:18" ht="54.75" customHeight="1">
       <c r="A5" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="20" t="s">
         <v>316</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>317</v>
       </c>
       <c r="D5" s="19">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -8470,54 +8595,54 @@
         <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="101" t="s">
-        <v>319</v>
+      <c r="L5" s="102" t="s">
+        <v>318</v>
       </c>
       <c r="M5" s="3">
         <v>14</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P5" s="8">
         <v>1</v>
       </c>
-      <c r="Q5" s="101" t="s">
-        <v>319</v>
-      </c>
-      <c r="R5" s="103" t="s">
+      <c r="Q5" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="R5" s="104" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="54.75" customHeight="1">
       <c r="A6" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D6" s="19">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -8526,48 +8651,48 @@
         <v>13</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="101"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="3">
         <v>14</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P6" s="8">
         <v>1</v>
       </c>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="103"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="104"/>
     </row>
     <row r="7" spans="1:18" ht="54.75" customHeight="1">
       <c r="A7" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="C7" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D7" s="19">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -8576,48 +8701,48 @@
         <v>13</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K7" s="8">
         <v>1</v>
       </c>
-      <c r="L7" s="101"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="3">
         <v>14</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P7" s="8">
         <v>1</v>
       </c>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="103"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="104"/>
     </row>
     <row r="8" spans="1:18" ht="54.75" customHeight="1">
       <c r="A8" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="C8" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D8" s="13">
         <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G8" s="22">
         <v>1</v>
@@ -8626,29 +8751,29 @@
         <v>13</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K8" s="22">
         <v>1</v>
       </c>
-      <c r="L8" s="102"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="14">
         <v>14</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P8" s="22">
         <v>1</v>
       </c>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="104"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8663,7 +8788,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
